--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{785EE14F-2C2C-41B0-A5F9-89FE423FA227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F45CFEFB-7B00-4106-B49F-209566B1A10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -956,6 +947,15 @@
   </si>
   <si>
     <t>UK Tax Rate</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>Dividend</t>
@@ -1517,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2152,6 +2152,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3566,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3577,29 +3578,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>45606</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3615,23 +3616,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3639,15 +3641,15 @@
         <v>2454657755</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3671,15 +3673,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3687,7 +3689,7 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
@@ -3695,25 +3697,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3722,16 +3724,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3740,7 +3742,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3871,7 +3873,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>19458</v>
@@ -4138,11 +4140,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4408384822640065E-2</v>
+        <v>2.0297699960762559E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4187,7 +4189,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4553,7 +4555,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4561,7 +4563,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>267</v>
@@ -4571,11 +4573,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4589,10 +4591,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4641,7 +4643,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4662,7 +4664,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4680,7 +4682,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4787,7 +4789,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4823,8 +4825,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4867,17 +4869,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>2888.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>95.65</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4887,40 +4889,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>Standard Chartered</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>2454657755</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>234788.01426575001</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>36279.840963435665</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4943,11 +4945,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4967,7 +4969,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7822066942850752</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5010,7 +5012,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5060,7 +5062,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5100,7 +5102,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5150,12 +5152,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.15112438048801777</v>
+        <v>0.12567309775682728</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5182,7 +5184,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4408384822640065E-2</v>
+        <v>2.0297699960762559E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5199,12 +5201,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>261</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5212,22 +5214,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>16.864576012350195</v>
+        <v>2.1239367587828686</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.339380075586128</v>
+        <v>4.1987853596624509</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.840677661588465</v>
-      </c>
-      <c r="G29" s="271">
+        <v>2.4987491279798455</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.990765283118375</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>3.6511177040543057</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5275,7 +5277,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5285,7 +5287,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5312,7 +5314,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6258,12 +6260,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6749,7 +6748,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6800,7 +6799,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6851,7 +6850,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6902,7 +6901,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7004,7 +7003,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7157,7 +7156,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8228,7 +8227,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8297,7 +8296,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8501,7 +8500,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -11451,11 +11450,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11466,11 +11465,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11482,11 +11481,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11700,19 +11699,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11722,18 +11721,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11810,7 +11809,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11870,7 +11869,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11933,7 +11932,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11963,7 +11962,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12100,17 +12099,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15112438048801785</v>
+        <v>0.12567309775682736</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15112438048801777</v>
+        <v>0.12567309775682728</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15112438048801777</v>
+        <v>0.12567309775682728</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12151,17 +12150,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4408384822640065E-2</v>
+        <v>2.0297699960762559E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4408384822640065E-2</v>
+        <v>2.0297699960762559E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4408384822640065E-2</v>
+        <v>2.0297699960762559E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12192,15 +12191,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12221,14 +12220,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>442.67687312015721</v>
+        <v>50.8667799869852</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>442.67687312015721</v>
+        <v>50.8667799869852</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12246,14 +12245,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>39.906689619506636</v>
+        <v>5.0258770183216184</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>39.906689619506636</v>
+        <v>5.0258770183216184</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12279,7 +12278,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12296,21 +12295,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>540242.29327171412</v>
+        <v>62077.753639633964</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>220.08864256993505</v>
+        <v>25.28977960906569</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>220.08864256993505</v>
+        <v>25.28977960906569</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>321.58872227322348</v>
+        <v>36.952874151452662</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12359,27 +12358,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>540242.29327171412</v>
+        <v>62077.753639633964</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>187.07534618444475</v>
+        <v>21.496312667705837</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>220.08864256993505</v>
+        <v>25.28977960906569</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>220.08864256993502</v>
+        <v>25.28977960906569</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>220.08864256993502</v>
+        <v>25.28977960906569</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>321.58872227322348</v>
+        <v>36.952874151452662</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12403,7 +12402,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12420,27 +12419,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>48702.073286473387</v>
+        <v>6133.573924795216</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.864576012350195</v>
+        <v>2.1239367587828686</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>19.840677661588465</v>
+        <v>2.4987491279798455</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>19.840677661588465</v>
+        <v>2.4987491279798455</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>19.840677661588465</v>
+        <v>2.4987491279798455</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>28.990765283118375</v>
+        <v>3.6511177040543057</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12464,7 +12463,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12481,27 +12480,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>294472.18327909382</v>
+        <v>34105.663782214586</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>101.96996109839748</v>
+        <v>11.810124713244353</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>119.96466011576176</v>
+        <v>13.894264368522768</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>119.96466011576175</v>
+        <v>13.894264368522768</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>119.96466011576175</v>
+        <v>13.894264368522768</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>175.28974377817093</v>
+        <v>20.301995927753484</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F45CFEFB-7B00-4106-B49F-209566B1A10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A2054C-6595-45AC-990C-C2F0043AE137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -931,6 +928,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1517,7 +1518,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2153,6 +2154,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3567,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3581,12 +3585,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>259</v>
@@ -3594,7 +3598,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>260</v>
@@ -3618,7 +3622,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
@@ -3627,7 +3631,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>261</v>
@@ -3635,7 +3639,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>2454657755</v>
@@ -3643,7 +3647,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>262</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3675,10 +3679,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3694,7 +3698,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>264</v>
@@ -3703,7 +3707,7 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
         <v>265</v>
@@ -3712,7 +3716,7 @@
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>265</v>
@@ -3721,7 +3725,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>265</v>
@@ -3730,7 +3734,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>264</v>
@@ -3739,7 +3743,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>266</v>
@@ -3873,7 +3877,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="151">
         <v>19458</v>
@@ -4121,7 +4125,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.21+0.09</f>
@@ -4140,11 +4144,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.0297699960762559E-2</v>
+        <v>2.4181388191211291E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4189,13 +4193,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4537,7 +4541,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4555,7 +4559,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4563,7 +4567,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>267</v>
@@ -4573,16 +4577,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4591,10 +4595,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4643,7 +4647,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4664,7 +4668,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4682,7 +4686,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4739,7 +4743,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4826,7 +4830,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4867,19 +4871,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>2888.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>96.55</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4887,42 +4891,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>Standard Chartered</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>2454657755</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>36279.840963435665</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>236997.20624525001</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4945,16 +4949,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4969,7 +4973,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>7.782376766204834</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4979,40 +4983,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5025,29 +5029,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5057,12 +5061,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5072,7 +5076,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5080,7 +5084,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5094,7 +5098,7 @@
         <v>3.4550297712315887E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5102,7 +5106,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5113,14 +5117,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5132,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5148,16 +5152,16 @@
         <v>0.50814791601378884</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.12567309775682728</v>
+        <v>258</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>6.679182024790892</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5180,11 +5184,11 @@
         <v>0.15564608795570867</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.0297699960762559E-2</v>
+        <v>2.4181388191211291E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5201,12 +5205,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5214,42 +5218,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.1239367587828686</v>
+        <v>16.846267500089251</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.1987853596624509</v>
+        <v>33.303186195085416</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4987491279798455</v>
-      </c>
-      <c r="G29" s="272">
+        <v>19.819138235399119</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.6511177040543057</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>28.959292343552541</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5259,7 +5263,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5270,14 +5274,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5287,7 +5291,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5297,14 +5301,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5314,7 +5318,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5329,14 +5333,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6321,16 +6325,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6348,7 +6352,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6381,7 +6385,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6748,7 +6752,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6799,7 +6803,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6850,7 +6854,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6901,7 +6905,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7003,7 +7007,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7156,7 +7160,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8227,7 +8231,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8296,7 +8300,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8500,7 +8504,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10398,7 +10402,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11450,11 +11454,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11465,11 +11469,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11481,11 +11485,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11699,19 +11703,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11721,18 +11725,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11809,7 +11813,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11869,7 +11873,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11932,7 +11936,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11962,7 +11966,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12095,28 +12099,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.12567309775682736</v>
+        <v>0.14971893209203382</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.12567309775682728</v>
+        <v>0.14971893209203374</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.12567309775682728</v>
+        <v>0.14971893209203374</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12146,21 +12150,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.0297699960762559E-2</v>
+        <v>2.4181388191211291E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.0297699960762559E-2</v>
+        <v>2.4181388191211291E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.0297699960762559E-2</v>
+        <v>2.4181388191211291E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12191,15 +12195,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12216,24 +12220,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>50.8667799869852</v>
+        <v>439.99068018500549</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>50.8667799869852</v>
+        <v>439.99068018500549</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12241,18 +12245,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>5.0258770183216184</v>
+        <v>39.86336613982607</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>5.0258770183216184</v>
+        <v>39.86336613982607</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12271,14 +12275,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12295,21 +12299,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>62077.753639633964</v>
+        <v>536964.06682806008</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>25.28977960906569</v>
+        <v>218.75312993605499</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>25.28977960906569</v>
+        <v>218.75312993605499</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.952874151452662</v>
+        <v>319.6373003529726</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12358,27 +12362,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>62077.753639633964</v>
+        <v>536964.06682806008</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>21.496312667705837</v>
+        <v>185.94016044564674</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>25.28977960906569</v>
+        <v>218.75312993605499</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>25.28977960906569</v>
+        <v>218.75312993605499</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>25.28977960906569</v>
+        <v>218.75312993605499</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>36.952874151452662</v>
+        <v>319.6373003529726</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12395,14 +12399,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12419,27 +12423,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6133.573924795216</v>
+        <v>48649.201366939458</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1239367587828686</v>
+        <v>16.846267500089251</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.4987491279798455</v>
+        <v>19.819138235399119</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.4987491279798455</v>
+        <v>19.819138235399119</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.4987491279798455</v>
+        <v>19.819138235399119</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.6511177040543057</v>
+        <v>28.959292343552541</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12449,21 +12453,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12476,31 +12480,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>34105.663782214586</v>
+        <v>292806.63409749977</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.810124713244353</v>
+        <v>101.393213972868</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.894264368522768</v>
+        <v>119.28613408572706</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>13.894264368522768</v>
+        <v>119.28613408572706</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.894264368522768</v>
+        <v>119.28613408572706</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.301995927753484</v>
+        <v>174.29829634826257</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A2054C-6595-45AC-990C-C2F0043AE137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BED0222-1EE5-495A-B0EF-A7D2BB5423AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -960,6 +957,10 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3585,28 +3586,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45606</v>
@@ -3614,7 +3615,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3622,24 +3623,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>2454657755</v>
@@ -3647,15 +3648,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3663,7 +3664,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000000</v>
@@ -3671,7 +3672,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3679,80 +3680,80 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3801,7 +3802,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>38292</v>
@@ -3821,7 +3822,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>1323</v>
@@ -3841,7 +3842,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>11551</v>
@@ -3861,7 +3862,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3877,7 +3878,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="151">
         <v>19458</v>
@@ -3897,7 +3898,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>-7</v>
@@ -3917,7 +3918,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3933,7 +3934,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3949,7 +3950,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3965,7 +3966,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3981,7 +3982,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -3997,7 +3998,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4013,7 +4014,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4029,7 +4030,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4045,7 +4046,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4061,7 +4062,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4077,7 +4078,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4093,7 +4094,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4109,7 +4110,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4125,7 +4126,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>0.21+0.09</f>
@@ -4144,11 +4145,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4181388191211291E-2</v>
+        <v>2.4257132294890169E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4193,21 +4194,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4217,7 +4218,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4227,7 +4228,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4238,7 +4239,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4248,7 +4249,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4258,7 +4259,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4269,7 +4270,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4279,7 +4280,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4290,7 +4291,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4298,24 +4299,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4326,7 +4327,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4337,7 +4338,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4348,7 +4349,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4359,7 +4360,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4370,7 +4371,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4381,7 +4382,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4391,31 +4392,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4423,12 +4424,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4439,7 +4440,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4450,7 +4451,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4460,7 +4461,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4471,7 +4472,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4481,85 +4482,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4567,15 +4568,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4583,10 +4584,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4596,19 +4597,19 @@
         <v>(Numbers in 1000000USD)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4626,7 +4627,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4647,7 +4648,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4668,7 +4669,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4686,7 +4687,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4707,7 +4708,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4725,7 +4726,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4743,7 +4744,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4871,7 +4872,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4883,15 +4884,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>96.55</v>
+        <v>96.25</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4900,7 +4901,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4911,7 +4912,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4920,11 +4921,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>236997.20624525001</v>
+        <v>236260.80891875</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4932,7 +4933,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4947,7 +4948,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4958,7 +4959,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4970,10 +4971,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782376766204834</v>
+        <v>7.7824966112772627</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4983,40 +4984,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5029,29 +5030,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5061,12 +5062,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5076,29 +5077,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>3.4550297712315887E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5106,7 +5107,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5117,26 +5118,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5145,30 +5146,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>0.50814791601378884</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.679182024790892</v>
+        <v>6.6583259462723934</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5177,61 +5178,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.15564608795570867</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4181388191211291E-2</v>
+        <v>2.4257132294890169E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>16.846267500089251</v>
+        <v>16.852757334197698</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.303186195085416</v>
+        <v>33.316015871076715</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.819138235399119</v>
+        <v>19.826773334350232</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.959292343552541</v>
+        <v>28.970448583544972</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5239,21 +5240,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5263,7 +5264,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5274,14 +5275,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5291,7 +5292,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5301,14 +5302,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5318,7 +5319,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5333,14 +5334,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6320,21 +6321,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6345,14 +6346,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6374,7 +6375,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6385,7 +6386,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6396,7 +6397,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6446,7 +6447,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6497,7 +6498,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6548,7 +6549,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6599,7 +6600,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6650,7 +6651,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6701,7 +6702,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6752,7 +6753,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6803,7 +6804,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6854,7 +6855,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6905,7 +6906,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6956,7 +6957,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7007,7 +7008,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7058,7 +7059,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7109,7 +7110,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7160,7 +7161,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7211,7 +7212,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7262,7 +7263,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7313,7 +7314,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7364,7 +7365,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7415,7 +7416,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7466,7 +7467,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7517,7 +7518,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7568,7 +7569,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7619,7 +7620,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7670,7 +7671,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7721,7 +7722,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7772,7 +7773,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7823,7 +7824,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7874,7 +7875,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7925,7 +7926,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7976,7 +7977,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8027,7 +8028,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8078,7 +8079,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8129,7 +8130,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8180,7 +8181,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8231,7 +8232,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8249,7 +8250,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8300,7 +8301,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8351,7 +8352,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8402,7 +8403,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8453,7 +8454,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8504,7 +8505,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8555,7 +8556,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8606,7 +8607,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8624,7 +8625,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8675,7 +8676,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8726,7 +8727,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8743,7 +8744,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8793,7 +8794,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8843,7 +8844,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8893,7 +8894,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10252,7 +10253,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10262,12 +10263,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10281,7 +10282,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10291,7 +10292,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10309,10 +10310,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10322,7 +10323,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10336,7 +10337,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10347,7 +10348,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10359,7 +10360,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10377,7 +10378,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10396,32 +10397,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10438,7 +10439,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10449,7 +10450,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10466,7 +10467,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10477,7 +10478,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10494,7 +10495,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10505,7 +10506,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10522,7 +10523,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10533,7 +10534,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10550,7 +10551,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10560,7 +10561,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10582,7 +10583,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10604,7 +10605,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10625,7 +10626,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10650,7 +10651,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10677,7 +10678,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10698,7 +10699,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10715,7 +10716,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10727,13 +10728,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10755,7 +10756,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10775,7 +10776,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10784,7 +10785,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10804,7 +10805,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10817,7 +10818,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10837,7 +10838,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10850,7 +10851,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10867,7 +10868,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10883,7 +10884,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10892,7 +10893,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10908,7 +10909,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10918,7 +10919,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10935,7 +10936,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10945,7 +10946,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10962,7 +10963,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10972,7 +10973,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10992,7 +10993,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11002,7 +11003,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11019,7 +11020,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11029,7 +11030,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11055,7 +11056,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11082,7 +11083,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11109,7 +11110,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11130,7 +11131,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11151,7 +11152,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11172,7 +11173,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11193,7 +11194,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11210,7 +11211,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11228,7 +11229,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11247,7 +11248,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11266,7 +11267,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11283,7 +11284,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11296,7 +11297,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11313,7 +11314,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11326,7 +11327,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11343,7 +11344,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11353,7 +11354,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11370,7 +11371,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11386,14 +11387,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11405,12 +11406,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11440,7 +11441,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11451,7 +11452,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11466,7 +11467,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11477,12 +11478,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11506,11 +11507,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11520,7 +11521,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11541,7 +11542,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11562,7 +11563,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11583,7 +11584,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11598,7 +11599,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11629,11 +11630,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11643,7 +11644,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11664,7 +11665,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11679,7 +11680,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11701,7 +11702,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11709,15 +11710,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11726,22 +11727,22 @@
         <v>(Numbers in 1000000USD)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11762,7 +11763,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11792,7 +11793,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11813,7 +11814,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11843,7 +11844,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11873,7 +11874,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11904,7 +11905,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11931,12 +11932,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11966,7 +11967,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11996,7 +11997,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12026,7 +12027,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12047,7 +12048,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12078,7 +12079,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12099,28 +12100,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14971893209203382</v>
+        <v>0.15018790129369411</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14971893209203374</v>
+        <v>0.15018790129369403</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14971893209203374</v>
+        <v>0.15018790129369403</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12150,21 +12151,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4181388191211291E-2</v>
+        <v>2.4257132294890169E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4181388191211291E-2</v>
+        <v>2.4257132294890169E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4181388191211291E-2</v>
+        <v>2.4257132294890169E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12181,27 +12182,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12220,24 +12221,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>439.99068018500549</v>
+        <v>440.89556082461831</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>439.99068018500549</v>
+        <v>440.89556082461831</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12245,18 +12246,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>39.86336613982607</v>
+        <v>39.878723050978671</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>39.86336613982607</v>
+        <v>39.878723050978671</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12275,51 +12276,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>536964.06682806008</v>
+        <v>538068.38201045478</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>218.75312993605499</v>
+        <v>219.20301553829233</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>218.75312993605499</v>
+        <v>219.20301553829233</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>319.6373003529726</v>
+        <v>320.2946633786301</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12337,7 +12338,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12358,31 +12359,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>536964.06682806008</v>
+        <v>538068.38201045478</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>185.94016044564674</v>
+        <v>186.32256320754848</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>218.75312993605499</v>
+        <v>219.20301553829233</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>218.75312993605499</v>
+        <v>219.20301553829233</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>218.75312993605499</v>
+        <v>219.20301553829233</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>319.6373003529726</v>
+        <v>320.2946633786301</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12392,58 +12393,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>48649.201366939458</v>
+        <v>48667.942921790011</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.846267500089251</v>
+        <v>16.852757334197698</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>19.819138235399119</v>
+        <v>19.826773334350232</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>19.819138235399119</v>
+        <v>19.826773334350232</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>19.819138235399119</v>
+        <v>19.826773334350232</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>28.959292343552541</v>
+        <v>28.970448583544972</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12453,58 +12454,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>292806.63409749977</v>
+        <v>293368.16246612236</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>101.393213972868</v>
+        <v>101.58766027087309</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>119.28613408572706</v>
+        <v>119.51489443632128</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>119.28613408572706</v>
+        <v>119.51489443632128</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>119.28613408572706</v>
+        <v>119.51489443632128</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>174.29829634826257</v>
+        <v>174.63255598108753</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12513,7 +12514,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BED0222-1EE5-495A-B0EF-A7D2BB5423AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{192867D4-A888-459E-B457-F8E44086009C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4257132294890169E-2</v>
+        <v>2.4307964370624279E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4794,7 +4794,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>96.25</v>
+        <v>96.05</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>236260.80891875</v>
+        <v>235769.87736775001</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4974,7 +4974,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7824966112772627</v>
+        <v>7.782599925994873</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6583259462723934</v>
+        <v>6.6444022575750239</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4257132294890169E-2</v>
+        <v>2.4307964370624279E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5219,20 +5219,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>16.852757334197698</v>
+        <v>16.857163392840693</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.316015871076715</v>
+        <v>33.324726156092275</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.826773334350232</v>
+        <v>19.831956932753759</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.970448583544972</v>
+        <v>28.97802274442807</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12104,17 +12104,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15018790129369411</v>
+        <v>0.1505026278112436</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15018790129369403</v>
+        <v>0.15050262781124352</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15018790129369403</v>
+        <v>0.15050262781124352</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12155,17 +12155,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4257132294890169E-2</v>
+        <v>2.4307964370624279E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4257132294890169E-2</v>
+        <v>2.4307964370624279E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4257132294890169E-2</v>
+        <v>2.4307964370624279E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12225,14 +12225,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>440.89556082461831</v>
+        <v>441.50496446351337</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>440.89556082461831</v>
+        <v>441.50496446351337</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12250,14 +12250,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>39.878723050978671</v>
+        <v>39.889149118884717</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>39.878723050978671</v>
+        <v>39.889149118884717</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12300,21 +12300,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>538068.38201045478</v>
+        <v>538812.09743675264</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>219.20301553829233</v>
+        <v>219.50599684995706</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>219.20301553829233</v>
+        <v>219.50599684995706</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>320.2946633786301</v>
+        <v>320.73737306029835</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12363,27 +12363,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>538068.38201045478</v>
+        <v>538812.09743675264</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>186.32256320754848</v>
+        <v>186.5800973224635</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>219.20301553829233</v>
+        <v>219.50599684995706</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>219.20301553829233</v>
+        <v>219.50599684995706</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>219.20301553829233</v>
+        <v>219.50599684995703</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>320.2946633786301</v>
+        <v>320.73737306029835</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12424,27 +12424,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>48667.942921790011</v>
+        <v>48680.66688181003</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.852757334197698</v>
+        <v>16.857163392840693</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>19.826773334350232</v>
+        <v>19.831956932753759</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>19.826773334350232</v>
+        <v>19.831956932753759</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>19.826773334350232</v>
+        <v>19.831956932753759</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>28.970448583544972</v>
+        <v>28.97802274442807</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12485,27 +12485,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>293368.16246612236</v>
+        <v>293746.38215928135</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>101.58766027087309</v>
+        <v>101.7186303576521</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>119.51489443632128</v>
+        <v>119.66897689135541</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>119.51489443632128</v>
+        <v>119.66897689135541</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>119.51489443632128</v>
+        <v>119.6689768913554</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>174.63255598108753</v>
+        <v>174.85769790236321</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{192867D4-A888-459E-B457-F8E44086009C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60055CED-7415-493B-BD15-72B3C64B4D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4307964370624279E-2</v>
+        <v>2.4119752005112075E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>96.05</v>
+        <v>96.8</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>235769.87736775001</v>
+        <v>237610.87068399999</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4974,7 +4974,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782599925994873</v>
+        <v>7.7826399803161621</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6444022575750239</v>
+        <v>6.6962501648855053</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4307964370624279E-2</v>
+        <v>2.4119752005112075E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5219,20 +5219,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>16.857163392840693</v>
+        <v>16.841768590072473</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.324726156092275</v>
+        <v>33.294292353291503</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.831956932753759</v>
+        <v>19.813845400085263</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.97802274442807</v>
+        <v>28.951558568079573</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12104,17 +12104,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1505026278112436</v>
+        <v>0.14933731198453501</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15050262781124352</v>
+        <v>0.1493373119845349</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15050262781124352</v>
+        <v>0.1493373119845349</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12155,17 +12155,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4307964370624279E-2</v>
+        <v>2.4119752005112075E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4307964370624279E-2</v>
+        <v>2.4119752005112075E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4307964370624279E-2</v>
+        <v>2.4119752005112075E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12225,14 +12225,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>441.50496446351337</v>
+        <v>439.27580251742739</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>441.50496446351337</v>
+        <v>439.27580251742739</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12250,14 +12250,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>39.889149118884717</v>
+        <v>39.852720357475292</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>39.889149118884717</v>
+        <v>39.852720357475292</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12300,21 +12300,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>538812.09743675264</v>
+        <v>536091.63103122474</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>219.50599684995706</v>
+        <v>218.39770939115087</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>219.50599684995706</v>
+        <v>218.39770939115087</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>320.73737306029835</v>
+        <v>319.11796760789895</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12363,27 +12363,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>538812.09743675264</v>
+        <v>536091.63103122474</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>186.5800973224635</v>
+        <v>185.6380529824782</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>219.50599684995706</v>
+        <v>218.39770939115087</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>219.50599684995706</v>
+        <v>218.39770939115084</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>219.50599684995703</v>
+        <v>218.39770939115084</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>320.73737306029835</v>
+        <v>319.11796760789895</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12424,27 +12424,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>48680.66688181003</v>
+        <v>48636.20926769037</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.857163392840693</v>
+        <v>16.841768590072473</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>19.831956932753759</v>
+        <v>19.813845400085263</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>19.831956932753759</v>
+        <v>19.813845400085263</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>19.831956932753759</v>
+        <v>19.813845400085263</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>28.97802274442807</v>
+        <v>28.951558568079573</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12485,27 +12485,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>293746.38215928135</v>
+        <v>292363.92014945758</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>101.7186303576521</v>
+        <v>101.23991078627533</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>119.66897689135541</v>
+        <v>119.10577739561806</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>119.66897689135541</v>
+        <v>119.10577739561805</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>119.6689768913554</v>
+        <v>119.10577739561805</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>174.85769790236321</v>
+        <v>174.03476308798926</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60055CED-7415-493B-BD15-72B3C64B4D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF9B22F6-7172-4676-B6DC-0C6C2F042234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4119752005112075E-2</v>
+        <v>2.4119049556984389E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4974,7 +4974,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7826399803161621</v>
+        <v>7.7824133237202959</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6962501648855053</v>
+        <v>6.6964451878435911</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4119752005112075E-2</v>
+        <v>2.4119049556984389E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5219,20 +5219,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>16.841768590072473</v>
+        <v>16.841220343802796</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.294292353291503</v>
+        <v>33.293208531750643</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.813845400085263</v>
+        <v>19.813200404473879</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.951558568079573</v>
+        <v>28.950616114565779</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12104,17 +12104,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14933731198453501</v>
+        <v>0.1493329627808129</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1493373119845349</v>
+        <v>0.14933296278081279</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1493373119845349</v>
+        <v>0.14933296278081279</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12155,17 +12155,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4119752005112075E-2</v>
+        <v>2.4119049556984389E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4119752005112075E-2</v>
+        <v>2.4119049556984389E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4119752005112075E-2</v>
+        <v>2.4119049556984389E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12225,14 +12225,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>439.27580251742739</v>
+        <v>439.25469832579785</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>439.27580251742739</v>
+        <v>439.25469832579785</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12250,14 +12250,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>39.852720357475292</v>
+        <v>39.85142304091643</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>39.852720357475292</v>
+        <v>39.85142304091643</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12300,21 +12300,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>536091.63103122474</v>
+        <v>536065.87550258555</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>218.39770939115087</v>
+        <v>218.38721687805537</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>218.39770939115087</v>
+        <v>218.38721687805537</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>319.11796760789895</v>
+        <v>319.10263617670648</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12363,27 +12363,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>536091.63103122474</v>
+        <v>536065.87550258555</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>185.6380529824782</v>
+        <v>185.62913434634706</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>218.39770939115087</v>
+        <v>218.38721687805537</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>218.39770939115084</v>
+        <v>218.38721687805537</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>218.39770939115084</v>
+        <v>218.3872168780554</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>319.11796760789895</v>
+        <v>319.10263617670648</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12424,27 +12424,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>48636.20926769037</v>
+        <v>48634.626024210942</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.841768590072473</v>
+        <v>16.841220343802796</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>19.813845400085263</v>
+        <v>19.813200404473879</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>19.813845400085263</v>
+        <v>19.813200404473879</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>19.813845400085263</v>
+        <v>19.813200404473879</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>28.951558568079573</v>
+        <v>28.950616114565779</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12485,27 +12485,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>292363.92014945758</v>
+        <v>292350.25076339825</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>101.23991078627533</v>
+        <v>101.23517734507493</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>119.10577739561806</v>
+        <v>119.10020864126463</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>119.10577739561805</v>
+        <v>119.10020864126463</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>119.10577739561805</v>
+        <v>119.10020864126464</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>174.03476308798926</v>
+        <v>174.02662614563613</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF9B22F6-7172-4676-B6DC-0C6C2F042234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C56FB45-0F90-490C-939F-A8F368EE32F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4119049556984389E-2</v>
+        <v>2.4119586491387738E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4586,7 +4586,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4974,7 +4974,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7824133237202959</v>
+        <v>7.7825865745544434</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6964451878435911</v>
+        <v>6.6962961159760948</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4119049556984389E-2</v>
+        <v>2.4119586491387738E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5219,20 +5219,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>16.841220343802796</v>
+        <v>16.84163940970852</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.293208531750643</v>
+        <v>33.294036978163845</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.813200404473879</v>
+        <v>19.813693423186496</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.950616114565779</v>
+        <v>28.951336502751172</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12104,17 +12104,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1493329627808129</v>
+        <v>0.14933628720722039</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14933296278081279</v>
+        <v>0.14933628720722031</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14933296278081279</v>
+        <v>0.14933628720722031</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12155,17 +12155,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4119049556984389E-2</v>
+        <v>2.4119586491387738E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4119049556984389E-2</v>
+        <v>2.4119586491387738E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4119049556984389E-2</v>
+        <v>2.4119586491387738E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12225,14 +12225,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>439.25469832579785</v>
+        <v>439.27082980585061</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>439.25469832579785</v>
+        <v>439.27082980585061</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12250,14 +12250,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>39.85142304091643</v>
+        <v>39.852414677647623</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>39.85142304091643</v>
+        <v>39.852414677647623</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12300,21 +12300,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>536065.87550258555</v>
+        <v>536085.56234033732</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>218.38721687805537</v>
+        <v>218.39523707464355</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>218.38721687805537</v>
+        <v>218.39523707464355</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>319.10263617670648</v>
+        <v>319.11435511296344</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12363,27 +12363,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>536065.87550258555</v>
+        <v>536085.56234033732</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>185.62913434634706</v>
+        <v>185.635951513447</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>218.38721687805537</v>
+        <v>218.39523707464355</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>218.38721687805537</v>
+        <v>218.39523707464355</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>218.3872168780554</v>
+        <v>218.39523707464357</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>319.10263617670648</v>
+        <v>319.11435511296344</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12424,27 +12424,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>48634.626024210942</v>
+        <v>48635.836216417229</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.841220343802796</v>
+        <v>16.84163940970852</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>19.813200404473879</v>
+        <v>19.813693423186496</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>19.813200404473879</v>
+        <v>19.813693423186496</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>19.813200404473879</v>
+        <v>19.813693423186496</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>28.950616114565779</v>
+        <v>28.951336502751172</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12485,27 +12485,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>292350.25076339825</v>
+        <v>292360.69927837723</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>101.23517734507493</v>
+        <v>101.23879546157775</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>119.10020864126463</v>
+        <v>119.10446524891502</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>119.10020864126463</v>
+        <v>119.10446524891502</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>119.10020864126464</v>
+        <v>119.10446524891503</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>174.02662614563613</v>
+        <v>174.03284580785731</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C56FB45-0F90-490C-939F-A8F368EE32F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65268D79-A2E4-4427-97D0-B2D73C492EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4119586491387738E-2</v>
+        <v>2.4119483045310027E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4974,7 +4974,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825865745544434</v>
+        <v>7.7825531959533691</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5023,7 +5023,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5070,7 +5070,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6962961159760948</v>
+        <v>6.6963248357279683</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4119586491387738E-2</v>
+        <v>2.4119483045310027E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5219,20 +5219,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>16.84163940970852</v>
+        <v>17.233222827245033</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.294036978163845</v>
+        <v>34.308860261369929</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.813693423186496</v>
+        <v>20.274379796758861</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.951336502751172</v>
+        <v>29.83379153162603</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12104,17 +12104,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14933628720722039</v>
+        <v>0.14933564672139876</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14933628720722031</v>
+        <v>0.14933564672139868</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14933628720722031</v>
+        <v>0.14933564672139868</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12155,17 +12155,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4119586491387738E-2</v>
+        <v>2.4119483045310027E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4119586491387738E-2</v>
+        <v>2.4119483045310027E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4119586491387738E-2</v>
+        <v>2.4119483045310027E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12214,7 +12214,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12225,14 +12225,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>439.27082980585061</v>
+        <v>449.48325029408477</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>439.27082980585061</v>
+        <v>449.48325029408477</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12250,14 +12250,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>39.852414677647623</v>
+        <v>40.779019526315714</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>39.852414677647623</v>
+        <v>40.779019526315714</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12300,21 +12300,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>536085.56234033732</v>
+        <v>548548.78732322704</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>218.39523707464355</v>
+        <v>223.47261495247716</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>218.39523707464355</v>
+        <v>223.47261495247716</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>319.11435511296344</v>
+        <v>328.84041210401682</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12363,27 +12363,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>536085.56234033732</v>
+        <v>548548.78732322704</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>185.635951513447</v>
+        <v>189.95172270960558</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>218.39523707464355</v>
+        <v>223.47261495247716</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>218.39523707464355</v>
+        <v>223.47261495247716</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>218.39523707464357</v>
+        <v>223.47261495247719</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>319.11435511296344</v>
+        <v>328.84041210401682</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12424,27 +12424,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>48635.836216417229</v>
+        <v>49766.663595929465</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.84163940970852</v>
+        <v>17.233222827245033</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>19.813693423186496</v>
+        <v>20.274379796758861</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>19.813693423186496</v>
+        <v>20.274379796758861</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>19.813693423186496</v>
+        <v>20.274379796758861</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>28.951336502751172</v>
+        <v>29.83379153162603</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12485,27 +12485,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>292360.69927837723</v>
+        <v>299157.72545957827</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>101.23879546157775</v>
+        <v>103.59247276842531</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>119.10446524891502</v>
+        <v>121.87349737461801</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>119.10446524891502</v>
+        <v>121.87349737461801</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>119.10446524891503</v>
+        <v>121.87349737461803</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>174.03284580785731</v>
+        <v>179.33710181782143</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65268D79-A2E4-4427-97D0-B2D73C492EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72D1AF01-E7D8-436F-AA09-803E59F32259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -980,6 +980,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1519,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1819,9 +1820,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,6 +2154,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,7 +3597,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3601,7 +3605,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3609,7 +3613,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45606</v>
       </c>
     </row>
@@ -3617,7 +3621,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3625,16 +3629,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3642,7 +3646,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>2454657755</v>
       </c>
     </row>
@@ -3650,47 +3654,47 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
@@ -3698,55 +3702,55 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>265</v>
       </c>
       <c r="D22" s="24"/>
@@ -3804,390 +3808,390 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>38292</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>24836</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>1323</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>1695</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>11551</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>10913</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>19458</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>7659</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>-7</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>-46</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.21+0.09</f>
         <v>0.3</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4119483045310027E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>2.4306371769267154E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4196,10 +4200,10 @@
       <c r="B47" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4298,7 +4302,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4310,7 +4314,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4330,7 +4334,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4398,7 +4402,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4410,7 +4414,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4423,7 +4427,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4471,14 +4475,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4562,7 +4566,7 @@
       <c r="B86" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4570,19 +4574,20 @@
       <c r="B87" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>266</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4596,14 +4601,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4615,12 +4620,12 @@
         <f>C25</f>
         <v>38292</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>38292</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>38292</v>
       </c>
@@ -4633,15 +4638,15 @@
         <f>C26</f>
         <v>1323</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>3.4550297712315887E-2</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>1323</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>1323</v>
       </c>
@@ -4654,15 +4659,15 @@
         <f>C27+C28</f>
         <v>11551</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.30165569831818656</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>11551</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>11551</v>
       </c>
@@ -4675,12 +4680,12 @@
         <f>C29</f>
         <v>19458</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>0.50814791601378884</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>19458.000000000004</v>
       </c>
@@ -4693,15 +4698,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4714,12 +4719,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4732,12 +4737,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4746,16 +4751,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.3</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.3</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.3</v>
       </c>
@@ -4874,17 +4879,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>2888.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>96.8</v>
+        <v>96.05</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4894,40 +4899,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>Standard Chartered</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>2454657755</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>237610.87068399999</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>235769.87736775001</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4935,11 +4940,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4950,22 +4955,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
@@ -4974,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825531959533691</v>
+        <v>7.7820900281270342</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4994,7 +4999,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5005,7 +5010,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5019,11 +5024,11 @@
       <c r="B12" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5032,7 +5037,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5043,7 +5048,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5054,10 +5059,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -5069,10 +5074,10 @@
       <c r="B17" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5094,14 +5099,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>3.4550297712315887E-2</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5109,7 +5114,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.30165569831818656</v>
       </c>
@@ -5120,7 +5125,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
@@ -5132,14 +5137,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5148,30 +5153,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.50814791601378884</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>257</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6963248357279683</v>
+        <v>6.6448376118991135</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.1615118933412292</v>
       </c>
@@ -5180,16 +5185,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.15564608795570867</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4119483045310027E-2</v>
+        <v>2.4306371769267154E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5208,10 +5213,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>256</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5219,22 +5224,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>17.233222827245033</v>
+        <v>16.855927911456845</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>34.308860261369929</v>
+        <v>33.322283747614158</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>20.274379796758861</v>
-      </c>
-      <c r="G29" s="273">
+        <v>19.83050342524335</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>29.83379153162603</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>28.975898910968837</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5246,17 +5251,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5266,7 +5271,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5274,17 +5279,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -5294,24 +5299,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5321,7 +5326,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5340,10 +5345,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6325,16 +6330,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6348,11 +6353,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6385,7 +6390,7 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6449,47 +6454,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>38292</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>24836</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6551,47 +6556,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>1323</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1695</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6602,47 +6607,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>36969</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>23141</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6653,47 +6658,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>11551</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>10913</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6704,47 +6709,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6755,47 +6760,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6803,50 +6808,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.6637940039694975</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.49234981478498951</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6854,50 +6859,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>25418</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>12228</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6905,50 +6910,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>1.0786719005561007</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6959,47 +6964,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7010,47 +7015,47 @@
       <c r="B17" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>19458</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>7659</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7061,47 +7066,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7112,47 +7117,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7163,47 +7168,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7214,47 +7219,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7265,47 +7270,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>5960</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>4569</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7316,47 +7321,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.1190692572861172</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>0.14073461910130455</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7367,7 +7372,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>4559.3999999999996</v>
       </c>
@@ -7415,50 +7420,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.3044429853359597</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7575,43 +7580,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7626,43 +7631,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7677,43 +7682,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7728,43 +7733,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7779,43 +7784,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7830,43 +7835,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7881,43 +7886,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7983,43 +7988,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8034,43 +8039,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8085,43 +8090,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8183,47 +8188,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8252,47 +8257,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>3.4550297712315887E-2</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>6.8247704944435494E-2</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8303,47 +8308,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.30165569831818656</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.43940248027057499</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8354,47 +8359,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8405,47 +8410,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.50814791601378884</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>0.30838299243034306</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8456,47 +8461,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8507,47 +8512,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8558,47 +8563,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.15564608795570875</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.18396682235464648</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8627,47 +8632,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8678,47 +8683,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8746,47 +8751,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8796,47 +8801,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8846,47 +8851,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>3.2647651006711409</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>1.6762967826657913</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8896,47 +8901,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10234,8 +10239,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10284,7 +10289,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10381,7 +10386,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10428,7 +10433,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10456,7 +10461,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10484,7 +10489,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10512,7 +10517,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10525,7 +10530,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10540,7 +10545,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10567,7 +10572,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10589,7 +10594,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10611,7 +10616,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10632,7 +10637,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10657,7 +10662,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10684,7 +10689,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10705,7 +10710,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10870,7 +10875,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10899,7 +10904,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10925,7 +10930,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10952,7 +10957,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10979,7 +10984,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10995,7 +11000,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11009,7 +11014,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11036,7 +11041,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11062,7 +11067,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11089,7 +11094,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11116,7 +11121,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11137,7 +11142,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11158,7 +11163,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11179,7 +11184,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11200,7 +11205,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11346,7 +11351,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11455,11 +11460,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11470,11 +11475,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11486,11 +11491,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11586,8 +11591,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11667,8 +11672,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11704,19 +11709,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11726,18 +11731,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11748,17 +11753,17 @@
         <f>Data!C6</f>
         <v>38292</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>38292</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>38292</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11769,23 +11774,23 @@
         <f>Data!C8</f>
         <v>1323</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>3.4550297712315887E-2</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>1323</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>3.4550297712315887E-2</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>1323</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>3.4550297712315887E-2</v>
       </c>
@@ -11795,21 +11800,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>36969</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>36969</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>36969</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11820,23 +11825,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>11551</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.30165569831818656</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>11551</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.30165569831818656</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>11551</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.30165569831818656</v>
       </c>
@@ -11850,54 +11855,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>25418</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.6637940039694975</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>25418</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.6637940039694975</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>25418</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.6637940039694975</v>
       </c>
@@ -11911,27 +11916,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11943,23 +11948,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>19458</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>0.50814791601378884</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>19458.000000000004</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>0.50814791601378884</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>19458.000000000004</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>0.50814791601378884</v>
       </c>
@@ -11973,23 +11978,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11999,27 +12004,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>5960</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.15564608795570875</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>5959.9999999999964</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.15564608795570867</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>5959.9999999999964</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.15564608795570867</v>
       </c>
@@ -12029,49 +12034,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>4559.3999999999996</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>0.1190692572861172</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>4559.3999999999969</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>0.11906925728611713</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>4559.3999999999969</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>0.11906925728611713</v>
       </c>
@@ -12081,69 +12086,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.8574483512875708</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.8574483512875697</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.8574483512875697</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14933564672139876</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>0.15049276722869345</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14933564672139868</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>0.15049276722869337</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14933564672139868</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>0.15049276722869337</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.3</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.16151189334122912</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.3</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.1615118933412292</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.3</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.1615118933412292</v>
       </c>
@@ -12153,21 +12158,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4119483045310027E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>2.4306371769267154E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4119483045310027E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>2.4306371769267154E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4119483045310027E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>2.4306371769267154E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12189,22 +12194,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12214,9 +12219,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12224,15 +12229,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>449.48325029408477</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>441.45711967294471</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>449.48325029408477</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>441.45711967294471</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12240,24 +12245,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>40.779019526315714</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>39.88622559610657</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>40.779019526315714</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>39.88622559610657</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12278,14 +12286,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12300,21 +12308,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>548548.78732322704</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>538753.707715158</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>223.47261495247716</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>219.48220953318111</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>223.47261495247716</v>
+        <v>219.48220953318111</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>328.84041210401682</v>
+        <v>320.70261555205548</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12326,14 +12334,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12344,17 +12352,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12363,27 +12371,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>548548.78732322704</v>
+        <v>538753.707715158</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>189.95172270960558</v>
+        <v>186.55987810320394</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>223.47261495247716</v>
+        <v>219.48220953318111</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>223.47261495247716</v>
+        <v>219.48220953318111</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>223.47261495247719</v>
+        <v>219.48220953318113</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>328.84041210401682</v>
+        <v>320.70261555205548</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12402,14 +12410,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12424,27 +12432,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>49766.663595929465</v>
+        <v>48677.099018327652</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>17.233222827245033</v>
+        <v>16.855927911456845</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>20.274379796758861</v>
+        <v>19.83050342524335</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>20.274379796758861</v>
+        <v>19.83050342524335</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>20.274379796758861</v>
+        <v>19.83050342524335</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.83379153162603</v>
+        <v>28.975898910968837</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12463,14 +12471,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12485,27 +12493,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>299157.72545957827</v>
+        <v>293715.40336674277</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>103.59247276842531</v>
+        <v>101.7079030073304</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>121.87349737461801</v>
+        <v>119.65635647921223</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>121.87349737461801</v>
+        <v>119.65635647921223</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>121.87349737461803</v>
+        <v>119.65635647921223</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>179.33710181782143</v>
+        <v>174.83925723151216</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72D1AF01-E7D8-436F-AA09-803E59F32259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF9A92F-D0BE-4E38-85B9-D46943EE7D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t>Standard Chartered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0014</t>
@@ -3577,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3630,7 +3633,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3639,7 +3642,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3658,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3698,7 +3701,7 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
@@ -3706,7 +3709,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3715,7 +3718,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3724,7 +3727,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3733,7 +3736,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3742,7 +3745,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3751,7 +3754,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4153,7 +4156,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4306371769267154E-2</v>
+        <v>2.438388505741448E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4575,9 +4578,11 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="269"/>
+        <v>267</v>
+      </c>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4889,10 +4894,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>96.05</v>
+        <v>95.75</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4930,7 +4935,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>235769.87736775001</v>
+        <v>235033.48004125</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4968,7 +4973,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>N</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -4979,7 +4984,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7820900281270342</v>
+        <v>7.782523314158122</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5025,10 +5030,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5075,7 +5080,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5162,7 +5167,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6448376118991135</v>
+        <v>6.6237145131275055</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5199,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4306371769267154E-2</v>
+        <v>2.438388505741448E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5229,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>16.855927911456845</v>
+        <v>16.863245496583669</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.322283747614158</v>
+        <v>30.378068194267282</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.83050342524335</v>
+        <v>19.839112348921965</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.975898910968837</v>
+        <v>26.415711473275898</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12109,17 +12114,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15049276722869345</v>
+        <v>0.1509726903262672</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15049276722869337</v>
+        <v>0.15097269032626712</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15049276722869337</v>
+        <v>0.15097269032626712</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12165,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4306371769267154E-2</v>
+        <v>2.438388505741448E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4306371769267154E-2</v>
+        <v>2.438388505741448E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4306371769267154E-2</v>
+        <v>2.438388505741448E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12219,7 +12224,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12230,14 +12235,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>441.45711967294471</v>
+        <v>442.40327831013315</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>441.45711967294471</v>
+        <v>442.40327831013315</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12251,21 +12256,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>39.88622559610657</v>
+        <v>39.903541216624191</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>39.88622559610657</v>
+        <v>39.903541216624191</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12308,21 +12313,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>538753.707715158</v>
+        <v>539908.39851332572</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>219.48220953318111</v>
+        <v>219.95261759549274</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>219.48220953318111</v>
+        <v>219.95261759549274</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>320.70261555205548</v>
+        <v>292.86617173222692</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12371,27 +12376,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>538753.707715158</v>
+        <v>539908.39851332572</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>186.55987810320394</v>
+        <v>186.95972495616886</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>219.48220953318111</v>
+        <v>219.95261759549274</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>219.48220953318111</v>
+        <v>219.95261759549277</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>219.48220953318113</v>
+        <v>219.95261759549277</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>320.70261555205548</v>
+        <v>292.86617173222692</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12432,27 +12437,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>48677.099018327652</v>
+        <v>48698.230979597567</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.855927911456845</v>
+        <v>16.863245496583669</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>19.83050342524335</v>
+        <v>19.839112348921965</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>19.83050342524335</v>
+        <v>19.839112348921965</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>19.83050342524335</v>
+        <v>19.839112348921965</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>28.975898910968837</v>
+        <v>26.415711473275898</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12493,27 +12498,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>293715.40336674277</v>
+        <v>294303.31474646163</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>101.7079030073304</v>
+        <v>101.91148522637626</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>119.65635647921223</v>
+        <v>119.89586497220735</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>119.65635647921223</v>
+        <v>119.89586497220736</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>119.65635647921223</v>
+        <v>119.89586497220736</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>174.83925723151216</v>
+        <v>159.64094160275141</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF9A92F-D0BE-4E38-85B9-D46943EE7D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F134B873-0169-455A-BFA7-D8595F6A6367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.438388505741448E-2</v>
+        <v>2.4193150021251619E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>95.75</v>
+        <v>96.5</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>235033.48004125</v>
+        <v>236874.47335750001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4984,7 +4984,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782523314158122</v>
+        <v>7.7821299235026045</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6237145131275055</v>
+        <v>6.6759348493005159</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.438388505741448E-2</v>
+        <v>2.4193150021251619E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5229,20 +5229,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>16.863245496583669</v>
+        <v>16.846700482402078</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>30.378068194267282</v>
+        <v>30.348263399621707</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.839112348921965</v>
+        <v>19.819647626355387</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>26.415711473275898</v>
+        <v>26.389794260540619</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12114,17 +12114,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1509726903262672</v>
+        <v>0.14979175539808892</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15097269032626712</v>
+        <v>0.14979175539808884</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15097269032626712</v>
+        <v>0.14979175539808884</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12165,17 +12165,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.438388505741448E-2</v>
+        <v>2.4193150021251619E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.438388505741448E-2</v>
+        <v>2.4193150021251619E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.438388505741448E-2</v>
+        <v>2.4193150021251619E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12235,14 +12235,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>442.40327831013315</v>
+        <v>440.11608297832316</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>442.40327831013315</v>
+        <v>440.11608297832316</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12263,14 +12263,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>39.903541216624191</v>
+        <v>39.864390706987209</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>39.903541216624191</v>
+        <v>39.864390706987209</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12313,21 +12313,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>539908.39851332572</v>
+        <v>537117.10823762615</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>219.95261759549274</v>
+        <v>218.81547728743396</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>219.95261759549274</v>
+        <v>218.81547728743396</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>292.86617173222692</v>
+        <v>291.35207323053942</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12376,27 +12376,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>539908.39851332572</v>
+        <v>537117.10823762615</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>186.95972495616886</v>
+        <v>185.99315569431886</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>219.95261759549274</v>
+        <v>218.81547728743396</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>219.95261759549277</v>
+        <v>218.81547728743396</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>219.95261759549277</v>
+        <v>218.81547728743396</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>292.86617173222692</v>
+        <v>291.35207323053942</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12437,27 +12437,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>48698.230979597567</v>
+        <v>48650.451747400599</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.863245496583669</v>
+        <v>16.846700482402078</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>19.839112348921965</v>
+        <v>19.819647626355387</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>19.839112348921965</v>
+        <v>19.819647626355387</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>19.839112348921965</v>
+        <v>19.819647626355387</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>26.415711473275898</v>
+        <v>26.389794260540619</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12498,27 +12498,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>294303.31474646163</v>
+        <v>292883.77999251336</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>101.91148522637626</v>
+        <v>101.41992808836046</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>119.89586497220735</v>
+        <v>119.31756245689468</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>119.89586497220736</v>
+        <v>119.31756245689468</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>119.89586497220736</v>
+        <v>119.31756245689468</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>159.64094160275141</v>
+        <v>158.87093374554001</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F134B873-0169-455A-BFA7-D8595F6A6367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29274A7B-8AD5-4B7B-A50F-F655DF9B6C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -929,6 +929,14 @@
   </si>
   <si>
     <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3633,7 +3641,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3701,7 +3709,7 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
@@ -3709,7 +3717,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3718,7 +3726,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3727,7 +3735,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3736,7 +3744,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3745,7 +3753,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3754,7 +3762,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4156,7 +4164,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4193150021251619E-2</v>
+        <v>2.3952587429258123E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4277,7 +4285,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>259</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4389,7 +4397,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>258</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4578,7 +4586,7 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4894,10 +4902,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>96.5</v>
+        <v>97.4</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4935,7 +4943,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>236874.47335750001</v>
+        <v>239083.66533700001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4984,7 +4992,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7821299235026045</v>
+        <v>7.7766067186991377</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5030,10 +5038,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5080,7 +5088,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5167,7 +5175,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6759348493005159</v>
+        <v>6.7429831461106442</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5199,7 +5207,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4193150021251619E-2</v>
+        <v>2.3952587429258123E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5229,20 +5237,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>16.846700482402078</v>
+        <v>20.086675856780328</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>30.348263399621707</v>
+        <v>38.030228217080953</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.819647626355387</v>
+        <v>23.631383360918033</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>26.389794260540619</v>
+        <v>33.069763667026919</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12114,17 +12122,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14979175539808892</v>
+        <v>0.14830231343182299</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14979175539808884</v>
+        <v>0.1483023134318229</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14979175539808884</v>
+        <v>0.1483023134318229</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12165,17 +12173,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4193150021251619E-2</v>
+        <v>2.3952587429258123E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4193150021251619E-2</v>
+        <v>2.3952587429258123E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4193150021251619E-2</v>
+        <v>2.3952587429258123E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12224,7 +12232,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12235,14 +12243,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>440.11608297832316</v>
+        <v>521.98232712547542</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>440.11608297832316</v>
+        <v>521.98232712547542</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12263,14 +12271,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>39.864390706987209</v>
+        <v>47.531152773550374</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>39.864390706987209</v>
+        <v>47.531152773550374</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12313,21 +12321,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>537117.10823762615</v>
+        <v>637026.56853508053</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>218.81547728743396</v>
+        <v>259.51746928364787</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>218.81547728743396</v>
+        <v>259.51746928364787</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>291.35207323053942</v>
+        <v>363.16881012004166</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12376,27 +12384,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>537117.10823762615</v>
+        <v>637026.56853508053</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>185.99315569431886</v>
+        <v>220.58984889110067</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>218.81547728743396</v>
+        <v>259.51746928364787</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>218.81547728743396</v>
+        <v>259.51746928364787</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>218.81547728743396</v>
+        <v>259.51746928364787</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>291.35207323053942</v>
+        <v>363.16881012004166</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12437,27 +12445,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>48650.451747400599</v>
+        <v>58006.958428255413</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.846700482402078</v>
+        <v>20.086675856780328</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>19.819647626355387</v>
+        <v>23.631383360918033</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>19.819647626355387</v>
+        <v>23.631383360918033</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>19.819647626355387</v>
+        <v>23.631383360918033</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>26.389794260540619</v>
+        <v>33.069763667026919</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12498,27 +12506,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>292883.77999251336</v>
+        <v>347516.76348166796</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>101.41992808836046</v>
+        <v>120.33826237394049</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>119.31756245689468</v>
+        <v>141.57442632228296</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>119.31756245689468</v>
+        <v>141.57442632228296</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>119.31756245689468</v>
+        <v>141.57442632228296</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>158.87093374554001</v>
+        <v>198.11928689353428</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29274A7B-8AD5-4B7B-A50F-F655DF9B6C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94144040-649E-4FBA-9D01-DCF22FAAE8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -937,6 +937,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3641,7 +3645,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3709,7 +3713,7 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
@@ -3717,7 +3721,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3726,7 +3730,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3735,7 +3739,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3744,7 +3748,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3753,7 +3757,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3762,7 +3766,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4164,7 +4168,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3952587429258123E-2</v>
+        <v>2.3903729485683756E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4586,7 +4590,7 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4902,10 +4906,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>97.4</v>
+        <v>97.6</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4943,7 +4947,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>239083.66533700001</v>
+        <v>239574.596888</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4992,7 +4996,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7766067186991377</v>
+        <v>7.7766799926757813</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5013,7 +5017,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5024,7 +5028,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5051,7 +5055,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5175,7 +5179,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7429831461106442</v>
+        <v>6.7567654427297938</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5207,7 +5211,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.3952587429258123E-2</v>
+        <v>2.3903729485683756E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5237,20 +5241,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>20.086675856780328</v>
+        <v>20.082073349598019</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>38.030228217080953</v>
+        <v>38.021514261632973</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>23.631383360918033</v>
+        <v>23.625968646585907</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>33.069763667026919</v>
+        <v>33.06218631446346</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5285,8 +5289,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6312,12 +6316,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8743,118 +8747,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8862,107 +8867,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>3.2647651006711409</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>1.6762967826657913</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>3.2647651006711409</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>1.6762967826657913</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9530,7 +9582,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10213,6 +10267,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12122,17 +12177,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14830231343182299</v>
+        <v>0.14799980974269128</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1483023134318229</v>
+        <v>0.1479998097426912</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1483023134318229</v>
+        <v>0.1479998097426912</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12173,17 +12228,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3952587429258123E-2</v>
+        <v>2.3903729485683756E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3952587429258123E-2</v>
+        <v>2.3903729485683756E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3952587429258123E-2</v>
+        <v>2.3903729485683756E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12243,14 +12298,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>521.98232712547542</v>
+        <v>521.30005751401302</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>521.98232712547542</v>
+        <v>521.30005751401302</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12271,14 +12326,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>47.531152773550374</v>
+        <v>47.520261848960196</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>47.531152773550374</v>
+        <v>47.520261848960196</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12321,21 +12376,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>637026.56853508053</v>
+        <v>636193.92756848084</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>259.51746928364787</v>
+        <v>259.17826070562774</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>259.51746928364787</v>
+        <v>259.17826070562774</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>363.16881012004166</v>
+        <v>362.69412155282447</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12384,27 +12439,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>637026.56853508053</v>
+        <v>636193.92756848084</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>220.58984889110067</v>
+        <v>220.30152159978357</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>259.51746928364787</v>
+        <v>259.17826070562774</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>259.51746928364787</v>
+        <v>259.17826070562774</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>259.51746928364787</v>
+        <v>259.17826070562774</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>363.16881012004166</v>
+        <v>362.69412155282447</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12445,27 +12500,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>58006.958428255413</v>
+        <v>57993.667157728953</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>20.086675856780328</v>
+        <v>20.082073349598019</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>23.631383360918033</v>
+        <v>23.625968646585907</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>23.631383360918033</v>
+        <v>23.625968646585907</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>23.631383360918033</v>
+        <v>23.625968646585907</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>33.069763667026919</v>
+        <v>33.06218631446346</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12506,27 +12561,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>347516.76348166796</v>
+        <v>347093.797363105</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>120.33826237394049</v>
+        <v>120.19179747469079</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>141.57442632228296</v>
+        <v>141.40211467610683</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>141.57442632228296</v>
+        <v>141.40211467610683</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>141.57442632228296</v>
+        <v>141.40211467610683</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>198.11928689353428</v>
+        <v>197.87815393364397</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94144040-649E-4FBA-9D01-DCF22FAAE8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D32235-DE27-4B7B-9C29-26ADD229D789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3903729485683756E-2</v>
+        <v>2.3840797026667842E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>97.6</v>
+        <v>97.85</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>239574.596888</v>
+        <v>240188.26132675001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4996,7 +4996,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7766799926757813</v>
+        <v>7.7760732968648272</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7567654427297938</v>
+        <v>6.7746012501413109</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.3903729485683756E-2</v>
+        <v>2.3840797026667842E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5241,20 +5241,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>20.082073349598019</v>
+        <v>20.074336343240223</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>38.021514261632973</v>
+        <v>38.006865739418444</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>23.625968646585907</v>
+        <v>23.616866286164967</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>33.06218631446346</v>
+        <v>33.04944846905952</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10307,8 +10307,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12177,17 +12177,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14799980974269128</v>
+        <v>0.14761016376855268</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1479998097426912</v>
+        <v>0.14761016376855257</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1479998097426912</v>
+        <v>0.14761016376855257</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12228,17 +12228,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3903729485683756E-2</v>
+        <v>2.3840797026667842E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3903729485683756E-2</v>
+        <v>2.3840797026667842E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3903729485683756E-2</v>
+        <v>2.3840797026667842E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12298,14 +12298,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>521.30005751401302</v>
+        <v>520.37537783852747</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>521.30005751401302</v>
+        <v>520.37537783852747</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12326,14 +12326,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>47.520261848960196</v>
+        <v>47.50195375090432</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>47.520261848960196</v>
+        <v>47.50195375090432</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12376,21 +12376,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>636193.92756848084</v>
+        <v>635065.44966787368</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>259.17826070562774</v>
+        <v>258.71853148337317</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>259.17826070562774</v>
+        <v>258.71853148337317</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>362.69412155282447</v>
+        <v>362.05077636652749</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12399,7 +12399,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12438,28 +12438,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>636193.92756848084</v>
+        <f>C97+C98+$C$99</f>
+        <v>635065.44966787368</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>220.30152159978357</v>
+        <v>219.91075176086719</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>259.17826070562774</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>258.71853148337317</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>259.17826070562774</v>
+        <v>258.71853148337317</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>259.17826070562774</v>
+        <v>258.71853148337317</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>362.69412155282447</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>362.05077636652749</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12500,27 +12500,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>57993.667157728953</v>
+        <v>57971.323978132888</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>20.082073349598019</v>
+        <v>20.074336343240223</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>23.625968646585907</v>
+        <v>23.616866286164967</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>23.625968646585907</v>
+        <v>23.616866286164967</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>23.625968646585907</v>
+        <v>23.616866286164967</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>33.06218631446346</v>
+        <v>33.04944846905952</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12561,27 +12561,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>347093.797363105</v>
+        <v>346518.38682300324</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>120.19179747469079</v>
+        <v>119.9925440520537</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>141.40211467610683</v>
+        <v>141.16769888476907</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>141.40211467610683</v>
+        <v>141.16769888476907</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>141.40211467610683</v>
+        <v>141.16769888476907</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>197.87815393364397</v>
+        <v>197.55011241779351</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D32235-DE27-4B7B-9C29-26ADD229D789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B193B033-E4EF-43D6-A4FE-6FAE92356819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3840797026667842E-2</v>
+        <v>2.3861237743016704E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>97.85</v>
+        <v>97.75</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>240188.26132675001</v>
+        <v>239942.79555124999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4996,7 +4996,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7760732968648272</v>
+        <v>7.7747866312662763</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7746012501413109</v>
+        <v>6.7687977916609841</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.3840797026667842E-2</v>
+        <v>2.3861237743016704E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5241,20 +5241,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>20.074336343240223</v>
+        <v>20.073018392353507</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>38.006865739418444</v>
+        <v>38.004370454814961</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>23.616866286164967</v>
+        <v>23.615315755710011</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>33.04944846905952</v>
+        <v>33.047278656360838</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12177,17 +12177,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14761016376855268</v>
+        <v>0.14773672235149043</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14761016376855257</v>
+        <v>0.14773672235149038</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14761016376855257</v>
+        <v>0.14773672235149038</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12228,17 +12228,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3840797026667842E-2</v>
+        <v>2.3861237743016704E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3840797026667842E-2</v>
+        <v>2.3861237743016704E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3840797026667842E-2</v>
+        <v>2.3861237743016704E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12298,14 +12298,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>520.37537783852747</v>
+        <v>520.57622517788457</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>520.37537783852747</v>
+        <v>520.57622517788457</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12326,14 +12326,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>47.50195375090432</v>
+        <v>47.498835080329307</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>47.50195375090432</v>
+        <v>47.498835080329307</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12376,21 +12376,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>635065.44966787368</v>
+        <v>635310.56350552908</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>258.71853148337317</v>
+        <v>258.81838810784808</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>258.71853148337317</v>
+        <v>258.81838810784808</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>362.05077636652749</v>
+        <v>362.19051575129129</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12439,27 +12439,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>635065.44966787368</v>
+        <v>635310.56350552908</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>219.91075176086719</v>
+        <v>219.99562989167086</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>258.71853148337317</v>
+        <v>258.81838810784808</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>258.71853148337317</v>
+        <v>258.81838810784808</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>258.71853148337317</v>
+        <v>258.81838810784808</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>362.05077636652749</v>
+        <v>362.19051575129129</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12500,27 +12500,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>57971.323978132888</v>
+        <v>57967.51795652727</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>20.074336343240223</v>
+        <v>20.073018392353507</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>23.616866286164967</v>
+        <v>23.615315755710011</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>23.616866286164967</v>
+        <v>23.615315755710011</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>23.616866286164967</v>
+        <v>23.615315755710011</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>33.04944846905952</v>
+        <v>33.047278656360838</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12561,27 +12561,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>346518.38682300324</v>
+        <v>346639.04073102819</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>119.9925440520537</v>
+        <v>120.03432414201218</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>141.16769888476907</v>
+        <v>141.21685193177905</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>141.16769888476907</v>
+        <v>141.21685193177905</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>141.16769888476907</v>
+        <v>141.21685193177905</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>197.55011241779351</v>
+        <v>197.61889720382607</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B193B033-E4EF-43D6-A4FE-6FAE92356819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3EFB60-6827-4DB5-B7A5-91AB01E42737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3861237743016704E-2</v>
+        <v>2.3897336154687598E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>97.75</v>
+        <v>97.6</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>239942.79555124999</v>
+        <v>239574.596888</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4996,7 +4996,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7747866312662763</v>
+        <v>7.7746000289916992</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5042,10 +5042,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5092,7 +5092,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7687977916609841</v>
+        <v>6.7585731018621384</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.3861237743016704E-2</v>
+        <v>2.3897336154687598E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5241,20 +5241,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>20.073018392353507</v>
+        <v>18.296134667815164</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>38.004370454814961</v>
+        <v>33.787216256074807</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>23.615315755710011</v>
+        <v>21.524864315076663</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>33.047278656360838</v>
+        <v>29.380188048760701</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12177,17 +12177,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14773672235149043</v>
+        <v>0.14796022546896448</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14773672235149038</v>
+        <v>0.1479602254689644</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14773672235149038</v>
+        <v>0.1479602254689644</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12228,17 +12228,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3861237743016704E-2</v>
+        <v>2.3897336154687598E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3861237743016704E-2</v>
+        <v>2.3897336154687598E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3861237743016704E-2</v>
+        <v>2.3897336154687598E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12287,7 +12287,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12298,14 +12298,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>520.57622517788457</v>
+        <v>474.87275666403627</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>520.57622517788457</v>
+        <v>474.87275666403627</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12326,14 +12326,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>47.498835080329307</v>
+        <v>43.294190550091699</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>47.498835080329307</v>
+        <v>43.294190550091699</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12376,21 +12376,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>635310.56350552908</v>
+        <v>579534.10862465471</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>258.81838810784808</v>
+        <v>236.09568684032479</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>258.81838810784808</v>
+        <v>236.09568684032479</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>362.19051575129129</v>
+        <v>322.25688280002305</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12439,27 +12439,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>635310.56350552908</v>
+        <v>579534.10862465471</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>219.99562989167086</v>
+        <v>200.68133381427606</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>258.81838810784808</v>
+        <v>236.09568684032479</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>258.81838810784808</v>
+        <v>236.09568684032479</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>258.81838810784808</v>
+        <v>236.09568684032479</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>362.19051575129129</v>
+        <v>322.25688280002305</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12500,27 +12500,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>57967.51795652727</v>
+        <v>52836.175116325692</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>20.073018392353507</v>
+        <v>18.296134667815164</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>23.615315755710011</v>
+        <v>21.524864315076663</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>23.615315755710011</v>
+        <v>21.524864315076663</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>23.615315755710011</v>
+        <v>21.524864315076663</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>33.047278656360838</v>
+        <v>29.380188048760701</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12561,27 +12561,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>346639.04073102819</v>
+        <v>316185.14187049022</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>120.03432414201218</v>
+        <v>109.48873424104561</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>141.21685193177905</v>
+        <v>128.81027557770074</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>141.21685193177905</v>
+        <v>128.81027557770074</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>141.21685193177905</v>
+        <v>128.81027557770074</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>197.61889720382607</v>
+        <v>175.81853542439188</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3EFB60-6827-4DB5-B7A5-91AB01E42737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC44B927-F009-493F-BAEB-A2BF2F7A4D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4168,7 +4179,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3897336154687598E-2</v>
+        <v>2.3776534621990177E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4906,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>97.6</v>
+        <v>98.1</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4947,7 +4958,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>239574.596888</v>
+        <v>240801.9257655</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4996,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7746000289916992</v>
+        <v>7.7749268213907881</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5179,7 +5190,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7585731018621384</v>
+        <v>6.7929114107255923</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5211,7 +5222,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.3897336154687598E-2</v>
+        <v>2.3776534621990177E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5241,20 +5252,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.296134667815164</v>
+        <v>18.286112728666598</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.787216256074807</v>
+        <v>33.768708881076442</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.524864315076663</v>
+        <v>21.513073798431293</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>29.380188048760701</v>
+        <v>29.36409467919691</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12177,17 +12188,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14796022546896448</v>
+        <v>0.14721228344315834</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1479602254689644</v>
+        <v>0.14721228344315826</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1479602254689644</v>
+        <v>0.14721228344315826</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12228,17 +12239,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3897336154687598E-2</v>
+        <v>2.3776534621990177E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3897336154687598E-2</v>
+        <v>2.3776534621990177E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3897336154687598E-2</v>
+        <v>2.3776534621990177E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12298,14 +12309,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>474.87275666403627</v>
+        <v>473.34767373196945</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>474.87275666403627</v>
+        <v>473.34767373196945</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12326,14 +12337,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.294190550091699</v>
+        <v>43.270475609692696</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.294190550091699</v>
+        <v>43.270475609692696</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12376,21 +12387,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>579534.10862465471</v>
+        <v>577672.89935288473</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>236.09568684032479</v>
+        <v>235.33745108710065</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>236.09568684032479</v>
+        <v>235.33745108710065</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>322.25688280002305</v>
+        <v>321.22193509076317</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12439,27 +12450,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>579534.10862465471</v>
+        <v>577672.89935288473</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>200.68133381427606</v>
+        <v>200.03683342403554</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>236.09568684032479</v>
+        <v>235.33745108710065</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>236.09568684032479</v>
+        <v>235.33745108710065</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>236.09568684032479</v>
+        <v>235.33745108710065</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>322.25688280002305</v>
+        <v>321.22193509076317</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12500,27 +12511,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>52836.175116325692</v>
+        <v>52807.233433206682</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>18.296134667815164</v>
+        <v>18.286112728666598</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>21.524864315076663</v>
+        <v>21.513073798431293</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>21.524864315076663</v>
+        <v>21.513073798431293</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>21.524864315076663</v>
+        <v>21.513073798431293</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.380188048760701</v>
+        <v>29.36409467919691</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12561,27 +12572,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>316185.14187049022</v>
+        <v>315240.06639304577</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>109.48873424104561</v>
+        <v>109.16147307635107</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>128.81027557770074</v>
+        <v>128.42526244276598</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>128.81027557770074</v>
+        <v>128.42526244276598</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>128.81027557770074</v>
+        <v>128.42526244276598</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>175.81853542439188</v>
+        <v>175.29301488498004</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC44B927-F009-493F-BAEB-A2BF2F7A4D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{105A485D-FABE-4A1A-9D71-6ACF782FF398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -911,10 +894,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -952,6 +931,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45606</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>2454657755</v>
@@ -3678,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,80 +3735,80 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3852,7 +3877,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>1323</v>
@@ -3872,7 +3897,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>11551</v>
@@ -3892,7 +3917,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3908,7 +3933,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C29" s="150">
         <v>19458</v>
@@ -3928,7 +3953,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>-7</v>
@@ -3948,7 +3973,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3964,7 +3989,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3980,7 +4005,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4012,7 +4037,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4028,7 +4053,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4060,7 +4085,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4108,7 +4133,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4124,7 +4149,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4140,7 +4165,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4156,7 +4181,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.21+0.09</f>
@@ -4175,11 +4200,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3776534621990177E-2</v>
+        <v>2.3946725367520624E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4224,21 +4249,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4248,7 +4273,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4258,7 +4283,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4269,7 +4294,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4279,7 +4304,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4289,7 +4314,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4300,7 +4325,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4310,7 +4335,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4321,7 +4346,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4329,24 +4354,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4357,7 +4382,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4368,7 +4393,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4379,7 +4404,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4390,7 +4415,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4401,7 +4426,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4412,7 +4437,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4422,31 +4447,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4454,12 +4479,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4470,7 +4495,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4481,7 +4506,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4491,7 +4516,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4502,7 +4527,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4512,25 +4537,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4542,55 +4567,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4598,10 +4623,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4609,18 +4634,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4629,20 +4654,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4660,7 +4685,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4681,7 +4706,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4702,7 +4727,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4720,7 +4745,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4741,7 +4766,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4759,7 +4784,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4777,7 +4802,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4905,62 +4930,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>2888.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>98.1</v>
+        <v>97.4</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>Standard Chartered</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>2454657755</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>240801.9257655</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>239083.66533700001</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4983,16 +5008,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5007,7 +5032,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7749268213907881</v>
+        <v>7.7747035026550293</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5017,40 +5042,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5063,29 +5088,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5095,12 +5120,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5110,29 +5135,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>3.4550297712315887E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5140,7 +5165,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5151,26 +5176,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5179,30 +5204,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.50814791601378884</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7929114107255923</v>
+        <v>6.7446338011747828</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5211,18 +5236,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.15564608795570867</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.3776534621990177E-2</v>
+        <v>2.3946725367520624E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5232,62 +5257,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>256</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>250</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.286112728666598</v>
+        <v>18.300791365606017</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.768708881076442</v>
+        <v>33.795815714821444</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.513073798431293</v>
-      </c>
-      <c r="G29" s="274">
+        <v>21.530342783065905</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>29.36409467919691</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>29.38766583897517</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5297,25 +5322,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5325,7 +5350,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5335,14 +5360,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5352,7 +5377,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5367,14 +5392,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6327,12 +6352,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6359,16 +6384,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6386,7 +6411,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6419,7 +6444,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6430,7 +6455,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6582,7 +6607,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6633,7 +6658,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6684,7 +6709,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6735,7 +6760,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6786,7 +6811,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6837,7 +6862,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6888,7 +6913,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6939,7 +6964,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6990,7 +7015,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7041,7 +7066,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7092,7 +7117,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7143,7 +7168,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7194,7 +7219,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7245,7 +7270,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7296,7 +7321,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7347,7 +7372,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7398,7 +7423,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7449,7 +7474,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7500,7 +7525,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7653,7 +7678,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7704,7 +7729,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7806,7 +7831,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8010,7 +8035,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8061,7 +8086,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8112,7 +8137,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8163,7 +8188,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8214,7 +8239,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8265,7 +8290,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8283,7 +8308,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8334,7 +8359,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8385,7 +8410,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8436,7 +8461,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8487,7 +8512,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8538,7 +8563,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8589,7 +8614,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8640,7 +8665,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8657,50 +8682,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8709,10 +8734,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8760,167 +8785,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8928,112 +8954,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>3.2647651006711409</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>1.6762967826657913</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>3.2647651006711409</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>1.6762967826657913</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9596,7 +9812,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10279,6 +10497,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10318,8 +10537,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10337,7 +10556,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10352,7 +10571,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10366,7 +10585,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10376,7 +10595,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10394,10 +10613,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10406,12 +10625,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in USD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10421,7 +10641,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10431,8 +10651,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10444,7 +10665,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10462,7 +10683,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10481,32 +10702,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10523,7 +10744,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10534,7 +10755,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10551,7 +10772,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10562,7 +10783,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10579,7 +10800,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10590,7 +10811,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10607,7 +10828,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10618,7 +10839,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10635,7 +10856,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10645,7 +10866,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10667,7 +10888,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10689,7 +10910,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10710,7 +10931,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10735,7 +10956,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10762,7 +10983,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10783,7 +11004,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10800,7 +11021,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10812,13 +11033,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10840,7 +11061,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10860,7 +11081,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10869,7 +11090,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10889,7 +11110,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10902,7 +11123,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10922,7 +11143,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10968,7 +11189,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10977,7 +11198,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10993,7 +11214,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11003,7 +11224,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11020,7 +11241,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11030,7 +11251,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11047,7 +11268,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11057,7 +11278,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11077,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11087,7 +11308,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11104,7 +11325,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11114,7 +11335,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11140,7 +11361,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11167,7 +11388,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11194,7 +11415,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11215,7 +11436,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11236,7 +11457,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11257,7 +11478,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11278,7 +11499,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11295,7 +11516,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11313,7 +11534,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11332,7 +11553,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11351,7 +11572,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11368,7 +11589,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11381,7 +11602,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11398,7 +11619,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11411,7 +11632,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11428,7 +11649,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11455,7 +11676,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11471,14 +11692,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11495,7 +11716,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11525,7 +11746,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11536,14 +11757,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11551,30 +11772,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11591,11 +11812,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11605,7 +11826,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11626,7 +11847,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11647,7 +11868,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11668,7 +11889,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11683,7 +11904,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11714,11 +11935,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11728,7 +11949,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11749,7 +11970,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11764,7 +11985,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11786,21 +12007,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11810,23 +12031,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11847,7 +12068,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11877,7 +12098,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11898,7 +12119,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11928,7 +12149,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11958,7 +12179,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11989,7 +12210,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12016,12 +12237,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12051,7 +12272,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12081,7 +12302,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12111,7 +12332,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12132,7 +12353,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12163,7 +12384,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12184,28 +12405,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14721228344315834</v>
+        <v>0.14826601850879143</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14721228344315826</v>
+        <v>0.14826601850879134</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14721228344315826</v>
+        <v>0.14826601850879134</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12235,21 +12456,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3776534621990177E-2</v>
+        <v>2.3946725367520624E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3776534621990177E-2</v>
+        <v>2.3946725367520624E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3776534621990177E-2</v>
+        <v>2.3946725367520624E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12266,29 +12487,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12305,24 +12526,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>473.34767373196945</v>
+        <v>475.51190408347287</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>473.34767373196945</v>
+        <v>475.51190408347287</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12333,18 +12554,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.270475609692696</v>
+        <v>43.305209706058349</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.270475609692696</v>
+        <v>43.305209706058349</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12363,51 +12584,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>577672.89935288473</v>
+        <v>580314.12332291831</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>235.33745108710065</v>
+        <v>236.4134560676946</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>235.33745108710065</v>
+        <v>236.4134560676946</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>321.22193509076317</v>
+        <v>322.69061931606211</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12425,7 +12646,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12446,31 +12667,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>577672.89935288473</v>
+        <v>580314.12332291831</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>200.03683342403554</v>
+        <v>200.9514376575404</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>235.33745108710065</v>
+        <v>236.4134560676946</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>235.33745108710065</v>
+        <v>236.4134560676946</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>235.33745108710065</v>
+        <v>236.4134560676946</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>321.22193509076317</v>
+        <v>322.69061931606211</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12480,58 +12701,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>52807.233433206682</v>
+        <v>52849.622880261006</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>18.286112728666598</v>
+        <v>18.300791365606017</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>21.513073798431293</v>
+        <v>21.530342783065905</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>21.513073798431293</v>
+        <v>21.530342783065905</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>21.513073798431293</v>
+        <v>21.530342783065905</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.36409467919691</v>
+        <v>29.38766583897517</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12541,58 +12762,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>315240.06639304577</v>
+        <v>316581.87310158974</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>109.16147307635107</v>
+        <v>109.62611451157321</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>128.42526244276598</v>
+        <v>128.97189942538026</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>128.42526244276598</v>
+        <v>128.97189942538026</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>128.42526244276598</v>
+        <v>128.97189942538026</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>175.29301488498004</v>
+        <v>176.03914257751865</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12601,7 +12822,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12610,6 +12831,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{105A485D-FABE-4A1A-9D71-6ACF782FF398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89184612-4F7C-42A2-B3FA-EB9A60E67175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>- (CAPX - D&amp;A)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -950,10 +916,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -967,6 +929,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.4550297712315887E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30165569831818656</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50814791601378884</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15564608795570867</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45606</v>
@@ -3678,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>2454657755</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3749,60 +2912,60 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3933,7 +3096,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C29" s="150">
         <v>19458</v>
@@ -4053,7 +3216,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4149,7 +3312,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4181,7 +3344,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.21+0.09</f>
@@ -4200,11 +3363,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3946725367520624E-2</v>
+        <v>2.3959579134697664E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4249,13 +3412,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4314,7 +3477,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4325,7 +3488,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4426,7 +3589,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4437,7 +3600,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4597,7 +3760,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4615,7 +3778,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4623,10 +3786,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4636,16 +3799,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4654,10 +3817,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4706,7 +3869,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4727,7 +3890,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4745,7 +3908,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4784,7 +3947,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4802,7 +3965,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4888,8 +4051,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4930,62 +4093,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>2888.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>97.4</v>
+        <v>97.35</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>Standard Chartered</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>2454657755</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>239083.66533700001</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>238960.93244924999</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5008,16 +4171,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5032,7 +4195,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7747035026550293</v>
+        <v>7.7748834292093916</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5042,40 +4205,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5088,29 +4251,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5120,12 +4283,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5133,9 +4296,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5143,59 +4306,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>3.4550297712315887E-2</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.30165569831818656</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>0</v>
+      <c r="B22" s="279" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.6637940039694975</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5204,30 +4367,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.50814791601378884</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7446338011747828</v>
+        <v>6.7410154591293185</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5236,18 +4399,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.15564608795570867</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.3946725367520624E-2</v>
+        <v>2.3959579134697664E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5257,62 +4420,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.300791365606017</v>
+        <v>18.302363612039247</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.795815714821444</v>
+        <v>33.798719160342138</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.530342783065905</v>
-      </c>
-      <c r="G29" s="278">
+        <v>21.532192484752056</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>29.38766583897517</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>29.390190574210557</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5322,7 +4485,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5333,14 +4496,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5350,7 +4513,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5360,14 +4523,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5377,7 +4540,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5392,14 +4555,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6343,7 +5506,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6357,7 +5519,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6384,16 +5546,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6411,7 +5573,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6444,7 +5606,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6811,7 +5973,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6862,7 +6024,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6913,7 +6075,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6964,7 +6126,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7066,7 +6228,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7219,7 +6381,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7729,7 +6891,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8239,7 +7401,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8290,7 +7452,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8359,7 +7521,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8563,7 +7725,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8665,7 +7827,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8683,14 +7845,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8734,7 +7896,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8785,7 +7947,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8836,7 +7998,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8887,7 +8049,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8904,7 +8066,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9104,7 +8266,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9154,7 +8316,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9204,7 +8366,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10708,7 +9870,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10866,7 +10028,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11278,7 +10440,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11746,7 +10908,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11760,11 +10922,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11775,11 +10937,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11791,11 +10953,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11812,7 +10974,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11889,7 +11051,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11935,7 +11097,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11970,7 +11132,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12009,19 +11171,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12031,18 +11193,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12119,7 +11281,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12149,7 +11311,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12179,7 +11341,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12242,7 +11404,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12272,7 +11434,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12353,7 +11515,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12384,7 +11546,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12405,28 +11567,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14826601850879143</v>
+        <v>0.14834560253762752</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14826601850879134</v>
+        <v>0.14834560253762744</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14826601850879134</v>
+        <v>0.14834560253762744</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12456,21 +11618,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3946725367520624E-2</v>
+        <v>2.3959579134697664E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3946725367520624E-2</v>
+        <v>2.3959579134697664E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3946725367520624E-2</v>
+        <v>2.3959579134697664E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12492,24 +11654,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12526,24 +11688,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>475.51190408347287</v>
+        <v>475.68771921533425</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>475.51190408347287</v>
+        <v>475.68771921533425</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12554,18 +11716,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.305209706058349</v>
+        <v>43.30893011683952</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.305209706058349</v>
+        <v>43.30893011683952</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12584,14 +11746,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12608,21 +11770,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>580314.12332291831</v>
+        <v>580528.68788636441</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>236.4134560676946</v>
+        <v>236.50086726096947</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>236.4134560676946</v>
+        <v>236.50086726096947</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>322.69061931606211</v>
+        <v>322.80993051163534</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12671,27 +11833,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>580314.12332291831</v>
+        <v>580528.68788636441</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>200.9514376575404</v>
+        <v>201.02573717182403</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>236.4134560676946</v>
+        <v>236.50086726096947</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>236.4134560676946</v>
+        <v>236.50086726096947</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>236.4134560676946</v>
+        <v>236.5008672609695</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>322.69061931606211</v>
+        <v>322.80993051163534</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12701,21 +11863,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12728,31 +11890,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>52849.622880261006</v>
+        <v>52854.163264849347</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>18.300791365606017</v>
+        <v>18.302363612039247</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>21.530342783065905</v>
+        <v>21.532192484752056</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>21.530342783065905</v>
+        <v>21.532192484752056</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>21.530342783065905</v>
+        <v>21.532192484752056</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.38766583897517</v>
+        <v>29.390190574210557</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12762,21 +11924,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12789,31 +11951,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>316581.87310158974</v>
+        <v>316691.42557560682</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>109.62611451157321</v>
+        <v>109.66405039193164</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>128.97189942538026</v>
+        <v>129.01652987286076</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>128.97189942538026</v>
+        <v>129.01652987286076</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>128.97189942538026</v>
+        <v>129.01652987286079</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>176.03914257751865</v>
+        <v>176.10006054292296</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12822,7 +11984,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89184612-4F7C-42A2-B3FA-EB9A60E67175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31BA0B85-A153-4427-9793-2797EE679367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -900,10 +896,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -965,6 +957,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45606</v>
@@ -2841,24 +2861,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>2454657755</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2912,66 +2932,66 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3096,7 +3116,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" s="150">
         <v>19458</v>
@@ -3182,9 +3202,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>262</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3200,7 +3220,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3216,7 +3236,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3231,10 +3251,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3246,9 +3267,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3295,10 +3316,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3312,9 +3334,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3328,7 +3350,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3344,7 +3366,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.21+0.09</f>
@@ -3363,11 +3385,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3959579134697664E-2</v>
+        <v>2.3786792823211812E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3412,13 +3434,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3436,7 +3458,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3446,7 +3468,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3477,7 +3499,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3488,7 +3510,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3522,7 +3544,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3589,7 +3611,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3600,7 +3622,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3647,7 +3669,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3760,7 +3782,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3778,7 +3800,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3786,10 +3808,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3797,7 +3819,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3805,10 +3827,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3830,7 +3852,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3869,7 +3891,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3890,7 +3912,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3908,7 +3930,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3947,7 +3969,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3965,7 +3987,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3988,28 +4010,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4051,8 +4078,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4093,7 +4120,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4105,15 +4132,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>97.35</v>
+        <v>98.05</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4133,7 +4160,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4146,7 +4173,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>238960.93244924999</v>
+        <v>240679.19287775</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4180,7 +4207,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4195,7 +4222,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7748834292093916</v>
+        <v>7.7743167877197266</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4205,40 +4232,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4251,29 +4278,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4283,12 +4310,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4298,7 +4325,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4306,21 +4333,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4328,10 +4355,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4339,58 +4366,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.6637940039694975</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.50814791601378884</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7410154591293185</v>
+        <v>6.7899819257525733</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4399,18 +4426,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.3959579134697664E-2</v>
+        <v>2.3786792823211812E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4420,40 +4447,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.302363612039247</v>
+        <v>18.285594047075193</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.798719160342138</v>
+        <v>33.767751039028653</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.532192484752056</v>
+        <v>21.512463584794347</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>29.390190574210557</v>
+        <v>29.363261773068398</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4461,21 +4488,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4485,25 +4512,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4513,7 +4540,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4523,14 +4550,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4540,7 +4567,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4555,14 +4582,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5462,27 +5489,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5514,12 +5541,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5546,16 +5573,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5573,7 +5600,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5606,7 +5633,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5617,7 +5644,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5973,7 +6000,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6024,7 +6051,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6075,7 +6102,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6126,7 +6153,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6228,7 +6255,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6381,7 +6408,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6636,7 +6663,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6687,7 +6714,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6741,15 +6768,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6789,50 +6816,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6840,50 +6867,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6891,101 +6918,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6993,101 +7020,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7095,50 +7122,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7146,50 +7173,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7197,50 +7224,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7248,272 +7275,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>3.4550297712315887E-2</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>6.8247704944435494E-2</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.30165569831818656</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.43940248027057499</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>3.4550297712315887E-2</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>6.8247704944435494E-2</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7521,50 +7548,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.30165569831818656</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>0.50814791601378884</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.43940248027057499</v>
+        <f t="shared" si="37"/>
+        <v>0.30838299243034306</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7572,50 +7599,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7623,50 +7650,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>0.50814791601378884</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>0.30838299243034306</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7674,221 +7701,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.15564608795570875</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.18396682235464648</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.15564608795570875</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.18396682235464648</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7896,522 +7923,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>3.2647651006711409</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>1.6762967826657913</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>3.2647651006711409</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>1.6762967826657913</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>250</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8971,12 +8902,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9658,27 +9585,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9870,7 +9800,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9917,7 +9847,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9945,7 +9875,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10028,7 +9958,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10050,7 +9980,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10118,7 +10048,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10440,7 +10370,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10577,7 +10507,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10908,7 +10838,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10974,7 +10904,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11009,7 +10939,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11030,7 +10960,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11051,7 +10981,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11066,7 +10996,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11097,7 +11027,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11111,7 +11041,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11132,7 +11062,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11147,7 +11077,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11169,7 +11099,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11177,11 +11107,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11209,7 +11139,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11281,7 +11211,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11311,7 +11241,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11341,7 +11271,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11399,12 +11329,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11434,7 +11364,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11464,7 +11394,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11515,7 +11445,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11546,7 +11476,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11567,28 +11497,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14834560253762752</v>
+        <v>0.14727579703964599</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14834560253762744</v>
+        <v>0.14727579703964591</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14834560253762744</v>
+        <v>0.14727579703964591</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11618,21 +11548,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3959579134697664E-2</v>
+        <v>2.3786792823211812E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3959579134697664E-2</v>
+        <v>2.3786792823211812E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3959579134697664E-2</v>
+        <v>2.3786792823211812E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11649,27 +11579,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11688,24 +11618,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>475.68771921533425</v>
+        <v>473.44156904716272</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>475.68771921533425</v>
+        <v>473.44156904716272</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11716,18 +11646,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.30893011683952</v>
+        <v>43.269248252108113</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.30893011683952</v>
+        <v>43.269248252108113</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11746,14 +11676,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11766,31 +11696,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>580528.68788636441</v>
+        <v>577787.48907619691</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>236.50086726096947</v>
+        <v>235.38413365336825</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>236.50086726096947</v>
+        <v>235.38413365336825</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>322.80993051163534</v>
+        <v>321.2856540789744</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11808,7 +11738,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11833,27 +11763,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>580528.68788636441</v>
+        <v>577787.48907619691</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>201.02573717182403</v>
+        <v>200.07651360536303</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>236.50086726096947</v>
+        <v>235.38413365336825</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>236.50086726096947</v>
+        <v>235.38413365336828</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>236.5008672609695</v>
+        <v>235.38413365336828</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>322.80993051163534</v>
+        <v>321.2856540789744</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11863,21 +11793,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11890,31 +11820,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>52854.163264849347</v>
+        <v>52805.73556757054</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>18.302363612039247</v>
+        <v>18.285594047075193</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>21.532192484752056</v>
+        <v>21.512463584794347</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>21.532192484752056</v>
+        <v>21.512463584794347</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>21.532192484752056</v>
+        <v>21.512463584794347</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.390190574210557</v>
+        <v>29.363261773068398</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11924,21 +11854,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11951,31 +11881,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>316691.42557560682</v>
+        <v>315296.61232188373</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>109.66405039193164</v>
+        <v>109.18105382621911</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>129.01652987286076</v>
+        <v>128.4482986190813</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>129.01652987286076</v>
+        <v>128.4482986190813</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>129.01652987286079</v>
+        <v>128.4482986190813</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>176.10006054292296</v>
+        <v>175.32445792602141</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11984,7 +11914,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31BA0B85-A153-4427-9793-2797EE679367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{451A451F-B494-4009-9203-A5A0027855DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -936,10 +932,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -969,6 +961,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,164 +2836,164 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>263</v>
+      <c r="C4" s="187" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>264</v>
+      <c r="C5" s="190" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45606</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>266</v>
+      <c r="C9" s="191" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>2454657755</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>267</v>
+      <c r="C11" s="191" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="176" t="s">
+      <c r="B15" s="215" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="175" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>270</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>270</v>
+      <c r="C19" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>270</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>269</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>271</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3042,404 +3050,408 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>38292</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>24836</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>1323</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>1695</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>11551</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>10913</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="150">
+        <v>237</v>
+      </c>
+      <c r="C29" s="149">
         <v>19458</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>7659</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>-7</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>-46</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>260</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>259</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.21+0.09</f>
         <v>0.3</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="152">
+        <v>233</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3786792823211812E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>2.3957093311813345E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3510,7 +3522,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3538,7 +3550,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3550,7 +3562,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3569,8 +3581,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3622,7 +3634,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3638,7 +3650,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3650,7 +3662,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3663,7 +3675,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3711,14 +3723,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3742,7 +3754,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3772,19 +3784,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>264</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3800,20 +3812,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="197">
+        <v>232</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="269">
+        <v>230</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3843,10 +3855,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3858,12 +3870,12 @@
         <f>C25</f>
         <v>38292</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>38292</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>38292</v>
       </c>
@@ -3876,75 +3888,75 @@
         <f>C26</f>
         <v>1323</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>3.4550297712315887E-2</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>1323</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>1323</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>11551</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.30165569831818656</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>11551</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>11551</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>19458</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>0.50814791601378884</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>19458.000000000004</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3957,12 +3969,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3975,12 +3987,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -3989,16 +4001,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.3</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.3</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.3</v>
       </c>
@@ -4079,7 +4091,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4131,11 +4143,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>98.05</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>97.35</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4173,7 +4185,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>240679.19287775</v>
+        <v>238960.93244924999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4183,11 +4195,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4209,11 +4221,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
@@ -4221,8 +4233,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>7.7743167877197266</v>
+      <c r="G7" s="132">
+        <v>7.7740767796834307</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4231,10 +4243,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4242,7 +4254,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4250,13 +4262,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4265,12 +4277,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="174">
+        <v>234</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4280,7 +4292,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4291,7 +4303,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4299,13 +4311,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -4315,49 +4327,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="175">
+        <v>235</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4365,79 +4377,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.6637940039694975</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>0.50814791601378884</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7899819257525733</v>
+        <v>6.7417149167084887</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.1615118933412292</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.3786792823211812E-2</v>
+        <v>2.3957093311813345E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4454,10 +4466,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4465,22 +4477,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.285594047075193</v>
-      </c>
-      <c r="D29" s="129">
+        <v>18.300242593973095</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>33.767751039028653</v>
+        <v>33.794802305914402</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.512463584794347</v>
+        <v>21.529697169380114</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>29.363261773068398</v>
+        <v>29.386784613838611</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4488,23 +4500,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4512,9 +4524,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4522,17 +4534,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4540,26 +4552,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4567,9 +4579,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4582,16 +4594,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5543,10 +5555,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5572,16 +5584,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5595,11 +5607,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5624,7 +5636,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5632,7 +5644,7 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5696,47 +5708,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>38292</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>24836</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5798,47 +5810,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>1323</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1695</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5849,47 +5861,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>36969</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>23141</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5900,47 +5912,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>11551</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>10913</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5951,47 +5963,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6000,49 +6012,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6050,50 +6062,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.6637940039694975</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.49234981478498951</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6101,50 +6113,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>25418</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>12228</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6152,50 +6164,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>1.0786719005561007</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6206,47 +6218,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6255,49 +6267,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="199">
+        <v>237</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>19458</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>7659</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6308,47 +6320,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6359,47 +6371,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6408,49 +6420,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6461,47 +6473,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6512,47 +6524,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>5960</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>4569</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6563,47 +6575,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.1190692572861172</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>0.14073461910130455</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6614,7 +6626,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>4559.3999999999996</v>
       </c>
@@ -6662,50 +6674,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.3044429853359597</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6822,43 +6834,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6873,43 +6885,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6918,49 +6930,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6975,43 +6987,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7026,43 +7038,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7128,43 +7140,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7179,43 +7191,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7230,43 +7242,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7328,47 +7340,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7377,7 +7389,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7397,47 +7409,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>3.4550297712315887E-2</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>6.8247704944435494E-2</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7446,49 +7458,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.30165569831818656</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.43940248027057499</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7499,47 +7511,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7550,47 +7562,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.50814791601378884</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>0.30838299243034306</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7601,47 +7613,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7650,49 +7662,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7703,47 +7715,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.15564608795570875</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.18396682235464648</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7752,9 +7764,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>244</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>262</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7769,50 +7783,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7821,49 +7835,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="153">
+        <v>251</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7872,49 +7886,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="153">
+        <v>252</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7923,49 +7937,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>242</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7974,7 +7988,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7991,49 +8005,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>246</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8043,47 +8057,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8093,47 +8107,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>3.2647651006711409</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>1.6762967826657913</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8143,47 +8157,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8191,149 +8205,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>247</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>250</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9629,8 +9643,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9666,8 +9680,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9679,8 +9693,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9690,8 +9704,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9778,11 +9792,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9825,7 +9839,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9853,7 +9867,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9881,7 +9895,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9909,7 +9923,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9922,7 +9936,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9937,7 +9951,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9964,7 +9978,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9986,7 +10000,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10008,7 +10022,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10029,7 +10043,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10037,7 +10051,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10054,7 +10068,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10062,7 +10076,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10081,7 +10095,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10102,7 +10116,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10267,7 +10281,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10296,7 +10310,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10322,7 +10336,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10349,7 +10363,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10376,7 +10390,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10392,7 +10406,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10406,7 +10420,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10433,7 +10447,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10441,7 +10455,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10459,7 +10473,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10467,7 +10481,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10486,7 +10500,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10494,7 +10508,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10513,7 +10527,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10534,7 +10548,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10555,7 +10569,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10576,7 +10590,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10597,7 +10611,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10743,8 +10757,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10770,8 +10784,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10841,7 +10855,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10941,7 +10955,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10949,7 +10963,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10980,11 +10994,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11061,12 +11075,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11145,17 +11159,17 @@
         <f>Data!C6</f>
         <v>38292</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>38292</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>38292</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11166,23 +11180,23 @@
         <f>Data!C8</f>
         <v>1323</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>3.4550297712315887E-2</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>1323</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>3.4550297712315887E-2</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>1323</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>3.4550297712315887E-2</v>
       </c>
@@ -11192,48 +11206,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>36969</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>36969</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>36969</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>11551</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.30165569831818656</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>11551</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.30165569831818656</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>11551</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.30165569831818656</v>
       </c>
@@ -11247,54 +11261,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>25418</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.6637940039694975</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>25418</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.6637940039694975</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>25418</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.6637940039694975</v>
       </c>
@@ -11308,55 +11322,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>19458</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>0.50814791601378884</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>19458.000000000004</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>0.50814791601378884</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>19458.000000000004</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>0.50814791601378884</v>
       </c>
@@ -11364,29 +11378,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11396,27 +11410,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>5960</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.15564608795570875</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>5959.9999999999964</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.15564608795570867</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>5959.9999999999964</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.15564608795570867</v>
       </c>
@@ -11426,49 +11440,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>4559.3999999999996</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.1190692572861172</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>4559.3999999999969</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.11906925728611713</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>4559.3999999999969</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.11906925728611713</v>
       </c>
@@ -11478,69 +11492,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.8574483512875708</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.8574483512875697</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.8574483512875697</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14727579703964599</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>0.14833021157890064</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14727579703964591</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>0.14833021157890053</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14727579703964591</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>0.14833021157890053</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.3</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.16151189334122912</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.3</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.1615118933412292</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.3</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.1615118933412292</v>
       </c>
@@ -11548,23 +11562,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3786792823211812E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>2.3957093311813345E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3786792823211812E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>2.3957093311813345E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3786792823211812E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>2.3957093311813345E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11586,7 +11600,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -11609,27 +11623,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>473.44156904716272</v>
+        <v>475.60649289247232</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>473.44156904716272</v>
+        <v>475.60649289247232</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11637,27 +11651,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.269248252108113</v>
+        <v>43.303911146331082</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.269248252108113</v>
+        <v>43.303911146331082</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11671,25 +11685,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11700,21 +11714,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>577787.48907619691</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>580429.5593851899</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>235.38413365336825</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>236.4604834229487</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>235.38413365336825</v>
-      </c>
-      <c r="I97" s="123">
+        <v>236.4604834229487</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>321.2856540789744</v>
+        <v>322.75480892118929</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11726,14 +11740,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11744,17 +11758,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11763,27 +11777,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>577787.48907619691</v>
+        <v>580429.5593851899</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>200.07651360536303</v>
+        <v>200.99141090950638</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>235.38413365336825</v>
+        <v>236.4604834229487</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>235.38413365336828</v>
+        <v>236.4604834229487</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>235.38413365336828</v>
+        <v>236.4604834229487</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>321.2856540789744</v>
+        <v>322.75480892118929</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11795,25 +11809,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11824,27 +11838,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>52805.73556757054</v>
+        <v>52848.038119620447</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>18.285594047075193</v>
-      </c>
-      <c r="E103" s="123">
+        <v>18.300242593973095</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>21.512463584794347</v>
+        <v>21.529697169380114</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>21.512463584794347</v>
-      </c>
-      <c r="H103" s="123">
+        <v>21.529697169380114</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>21.512463584794347</v>
+        <v>21.529697169380114</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.363261773068398</v>
+        <v>29.386784613838611</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11856,25 +11870,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11885,27 +11899,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>315296.61232188373</v>
+        <v>316638.79875240516</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>109.18105382621911</v>
-      </c>
-      <c r="E106" s="123">
+        <v>109.64582675173975</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>128.4482986190813</v>
+        <v>128.99509029616439</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>128.4482986190813</v>
-      </c>
-      <c r="H106" s="123">
+        <v>128.99509029616439</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>128.4482986190813</v>
-      </c>
-      <c r="I106" s="123">
+        <v>128.99509029616439</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>175.32445792602141</v>
+        <v>176.07079676751394</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11916,14 +11930,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{451A451F-B494-4009-9203-A5A0027855DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D79A842-7925-4D9A-827D-8BCC4FADE932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3262,9 +3262,7 @@
       <c r="B37" s="94" t="s">
         <v>258</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3328,9 +3326,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3346,9 +3342,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3401,7 +3395,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3957093311813345E-2</v>
+        <v>2.3944579110742836E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4144,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>97.35</v>
+        <v>97.4</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4185,7 +4179,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>238960.93244924999</v>
+        <v>239083.66533700001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4234,7 +4228,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>7.7740767796834307</v>
+        <v>7.7740066846211748</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4417,7 +4411,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7417149167084887</v>
+        <v>6.7452383520396149</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4449,7 +4443,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.3957093311813345E-2</v>
+        <v>2.3944579110742836E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4479,20 +4473,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.300242593973095</v>
+        <v>18.298959353035755</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>33.794802305914402</v>
+        <v>33.792432562804954</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.529697169380114</v>
+        <v>21.528187474159711</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>29.386784613838611</v>
+        <v>29.384723967656484</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11515,17 +11509,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14833021157890064</v>
+        <v>0.14825272997174699</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14833021157890053</v>
+        <v>0.14825272997174688</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14833021157890053</v>
+        <v>0.14825272997174688</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11566,17 +11560,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3957093311813345E-2</v>
+        <v>2.3944579110742836E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3957093311813345E-2</v>
+        <v>2.3944579110742836E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3957093311813345E-2</v>
+        <v>2.3944579110742836E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11636,14 +11630,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>475.60649289247232</v>
+        <v>475.44177402529613</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>475.60649289247232</v>
+        <v>475.44177402529613</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11664,14 +11658,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.303911146331082</v>
+        <v>43.300874609998594</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.303911146331082</v>
+        <v>43.300874609998594</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11714,21 +11708,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>580429.5593851899</v>
+        <v>580228.53668906144</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>236.4604834229487</v>
+        <v>236.37858903432399</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>236.4604834229487</v>
+        <v>236.37858903432399</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>322.75480892118929</v>
+        <v>322.64302784314339</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11777,27 +11771,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>580429.5593851899</v>
+        <v>580228.53668906144</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>200.99141090950638</v>
+        <v>200.92180067917542</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>236.4604834229487</v>
+        <v>236.37858903432399</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>236.4604834229487</v>
+        <v>236.37858903432402</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>236.4604834229487</v>
+        <v>236.37858903432402</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>322.75480892118929</v>
+        <v>322.64302784314339</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11838,27 +11832,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>52848.038119620447</v>
+        <v>52844.332334539999</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>18.300242593973095</v>
+        <v>18.298959353035755</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>21.529697169380114</v>
+        <v>21.528187474159711</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>21.529697169380114</v>
+        <v>21.528187474159711</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>21.529697169380114</v>
+        <v>21.528187474159711</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.386784613838611</v>
+        <v>29.384723967656484</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11899,27 +11893,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>316638.79875240516</v>
+        <v>316536.43451180065</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>109.64582675173975</v>
+        <v>109.61038001610558</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>128.99509029616439</v>
+        <v>128.95338825424184</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>128.99509029616439</v>
+        <v>128.95338825424187</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>128.99509029616439</v>
+        <v>128.95338825424187</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>176.07079676751394</v>
+        <v>176.01387590539994</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D79A842-7925-4D9A-827D-8BCC4FADE932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AAC20B6-FDA5-42EA-A818-FE9CEF69DDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -844,10 +841,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -956,10 +949,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +966,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,174 +2826,174 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>2454657755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>2454657755</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="D16" s="24" t="s">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
+      <c r="C19" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>273</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3047,796 +3041,797 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>38292</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>24836</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>1323</v>
+      </c>
+      <c r="D26" s="148">
+        <v>1695</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>11551</v>
+      </c>
+      <c r="D27" s="148">
+        <v>10913</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>1323</v>
-      </c>
-      <c r="D26" s="149">
-        <v>1695</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="148">
+        <v>19458</v>
+      </c>
+      <c r="D29" s="148">
+        <v>7659</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>-7</v>
+      </c>
+      <c r="D30" s="148">
+        <v>-46</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>11551</v>
-      </c>
-      <c r="D27" s="149">
-        <v>10913</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="C29" s="149">
-        <v>19458</v>
-      </c>
-      <c r="D29" s="149">
-        <v>7659</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>-7</v>
-      </c>
-      <c r="D30" s="149">
-        <v>-46</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.21+0.09</f>
         <v>0.3</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" s="151">
+        <v>231</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3944579110742836E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>2.3941499251849352E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>263</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>260</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>264</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>261</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="196">
+        <v>230</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="266">
+        <v>229</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3845,166 +3840,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>38292</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>38292</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>38292</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>1323</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>3.4550297712315887E-2</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>1323</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>1323</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>229</v>
+      <c r="B93" s="103" t="s">
+        <v>228</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>11551</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.30165569831818656</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>11551</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>11551</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>237</v>
+      <c r="B94" s="103" t="s">
+        <v>235</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>19458</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>0.50814791601378884</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>19458.000000000004</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.3</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.3</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.3</v>
       </c>
@@ -4017,32 +4012,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4101,13 +4096,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4118,82 +4113,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>2888.HK : Standard Chartered</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>2888.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
+      <c r="G3" s="130">
         <v>97.4</v>
       </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>Standard Chartered</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>2454657755</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
         <v>239083.66533700001</v>
       </c>
-      <c r="H5" s="287"/>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4204,31 +4199,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>7.7740066846211748</v>
+      <c r="G7" s="131">
+        <v>7.7730067571004229</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4237,280 +4232,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>261</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.6637940039694975</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>0.50814791601378884</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>239</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7452383520396149</v>
+        <v>6.7461060663840131</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.1615118933412292</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>256</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.3944579110742836E-2</v>
+        <v>2.3941499251849352E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.298959353035755</v>
-      </c>
-      <c r="D29" s="128">
+        <v>18.296330494587089</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>33.792432562804954</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>33.787577886638417</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.528187474159711</v>
-      </c>
-      <c r="G29" s="286">
+        <v>21.525094699514224</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>29.384723967656484</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>29.380502510120362</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4518,9 +4513,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4528,17 +4523,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4546,26 +4541,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4573,9 +4568,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4588,16 +4583,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5549,10 +5544,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5578,59 +5573,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>25418</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5638,19 +5633,19 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5699,928 +5694,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>38292</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>24836</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.54179416975358352</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>1323</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1695</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>36969</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>23141</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>11551</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>10913</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.6637940039694975</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.49234981478498951</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>25418</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>12228</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>1.0786719005561007</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>19458</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>7659</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>5960</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>4569</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.1190692572861172</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>0.14073461910130455</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>4559.3999999999996</v>
       </c>
@@ -6664,63 +6659,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.3044429853359597</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6766,11 +6761,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6817,266 +6812,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>258</v>
+      <c r="B30" s="93" t="s">
+        <v>256</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7123,165 +7118,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7327,63 +7322,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7396,372 +7391,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>3.4550297712315887E-2</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>6.8247704944435494E-2</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.30165569831818656</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.43940248027057499</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.50814791601378884</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>0.30838299243034306</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.15564608795570875</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.18396682235464648</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>244</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>262</v>
+      <c r="B47" s="101" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>259</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7773,216 +7768,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>242</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>245</v>
+      <c r="B52" s="101" t="s">
+        <v>243</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7998,350 +7993,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>3.2647651006711409</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>1.6762967826657913</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>248</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>249</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9620,7 +9615,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9638,7 +9633,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9656,25 +9651,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9682,12 +9677,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9695,28 +9690,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9729,7 +9724,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in USD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9738,16 +9733,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9755,7 +9750,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9765,287 +9760,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10056,21 +10051,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10083,45 +10078,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10129,17 +10124,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10149,19 +10144,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10171,17 +10166,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10190,7 +10185,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10200,17 +10195,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10223,7 +10218,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10233,17 +10228,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10270,12 +10265,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10285,171 +10280,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10457,25 +10452,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10483,26 +10478,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10510,113 +10505,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10624,17 +10619,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10644,16 +10639,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10663,16 +10658,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10682,14 +10677,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10702,7 +10697,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10712,14 +10707,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10732,13 +10727,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10746,12 +10741,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10762,63 +10757,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10826,45 +10821,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10872,61 +10867,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10940,35 +10935,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10982,29 +10977,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11018,9 +11013,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11028,28 +11023,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11063,29 +11058,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11099,29 +11094,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11131,66 +11126,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>38292</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>38292</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>38292</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>1323</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>3.4550297712315887E-2</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>1323</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>3.4550297712315887E-2</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>1323</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>3.4550297712315887E-2</v>
       </c>
@@ -11198,50 +11193,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>36969</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>36969</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>36969</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>229</v>
+      <c r="B77" s="103" t="s">
+        <v>228</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>11551</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.30165569831818656</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>11551</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.30165569831818656</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>11551</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.30165569831818656</v>
       </c>
@@ -11249,60 +11244,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>25418</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.6637940039694975</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>25418</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.6637940039694975</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>25418</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.6637940039694975</v>
       </c>
@@ -11310,61 +11305,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>237</v>
+      <c r="B81" s="103" t="s">
+        <v>235</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>19458</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>0.50814791601378884</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>19458.000000000004</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>0.50814791601378884</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>19458.000000000004</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>0.50814791601378884</v>
       </c>
@@ -11372,59 +11367,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>5960</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.15564608795570875</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>5959.9999999999964</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.15564608795570867</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>5959.9999999999964</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.15564608795570867</v>
       </c>
@@ -11432,184 +11427,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>4559.3999999999996</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.1190692572861172</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>4559.3999999999969</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.11906925728611713</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>4559.3999999999969</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.11906925728611713</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.8574483512875708</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.8574483512875697</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.8574483512875697</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14825272997174699</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>0.14823366104233396</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14825272997174688</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>0.14823366104233385</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14825272997174688</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>0.14823366104233385</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.3</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.16151189334122912</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.3</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.1615118933412292</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.3</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.1615118933412292</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3944579110742836E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>2.3941499251849352E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3944579110742836E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>2.3941499251849352E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3944579110742836E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>2.3941499251849352E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11617,55 +11612,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>475.44177402529613</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>475.34114887299455</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>475.44177402529613</v>
+        <v>475.34114887299455</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.300874609998594</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>43.294653935486075</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.300874609998594</v>
+        <v>43.294653935486075</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11675,123 +11670,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>580228.53668906144</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>580105.7338810967</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>236.37858903432399</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>236.32856054961383</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>236.37858903432399</v>
-      </c>
-      <c r="I97" s="122">
+        <v>236.32856054961383</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>322.64302784314339</v>
+        <v>322.57474187083415</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>580228.53668906144</v>
-      </c>
-      <c r="D100" s="109">
+        <v>580105.7338810967</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>200.92180067917542</v>
-      </c>
-      <c r="E100" s="109">
+        <v>200.87927646717174</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>236.37858903432399</v>
-      </c>
-      <c r="F100" s="109">
+        <v>236.32856054961383</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>236.37858903432402</v>
-      </c>
-      <c r="H100" s="109">
+        <v>236.32856054961383</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>236.37858903432402</v>
-      </c>
-      <c r="I100" s="109">
+        <v>236.32856054961385</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>322.64302784314339</v>
+        <v>322.57474187083415</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11801,58 +11796,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>52844.332334539999</v>
-      </c>
-      <c r="D103" s="109">
+        <v>52836.740631271983</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>18.298959353035755</v>
-      </c>
-      <c r="E103" s="122">
+        <v>18.296330494587089</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>21.528187474159711</v>
-      </c>
-      <c r="F103" s="109">
+        <v>21.525094699514224</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>21.528187474159711</v>
-      </c>
-      <c r="H103" s="122">
+        <v>21.525094699514224</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>21.528187474159711</v>
-      </c>
-      <c r="I103" s="109">
+        <v>21.525094699514224</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.384723967656484</v>
+        <v>29.380502510120362</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11862,58 +11857,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>316536.43451180065</v>
-      </c>
-      <c r="D106" s="109">
+        <v>316471.23725618434</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>109.61038001610558</v>
-      </c>
-      <c r="E106" s="122">
+        <v>109.58780348087942</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>128.95338825424184</v>
-      </c>
-      <c r="F106" s="109">
+        <v>128.92682762456403</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>128.95338825424187</v>
-      </c>
-      <c r="H106" s="122">
+        <v>128.92682762456403</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>128.95338825424187</v>
-      </c>
-      <c r="I106" s="122">
+        <v>128.92682762456403</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>176.01387590539994</v>
+        <v>175.97762219047726</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11922,15 +11917,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AAC20B6-FDA5-42EA-A818-FE9CEF69DDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A5B832-FE27-43B2-9A21-6A5107410C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -974,6 +974,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2880,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,7 +2948,10 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="E16" s="109" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
@@ -2942,7 +2959,7 @@
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2951,7 +2968,7 @@
         <v>222</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -2960,7 +2977,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2969,7 +2986,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2978,7 +2995,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2987,7 +3004,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3389,7 +3406,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3941499251849352E-2</v>
+        <v>2.3782192718490296E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3812,7 +3829,7 @@
         <v>229</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3822,11 +3839,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3840,10 +3857,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4065,8 +4082,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4079,8 +4099,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4123,60 +4143,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>2888.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>97.4</v>
+        <v>98.05</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>Standard Chartered</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>2454657755</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>239083.66533700001</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>240679.19287775</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4199,11 +4219,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4223,7 +4243,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>7.7730067571004229</v>
+        <v>7.7728133201599121</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4344,7 +4364,7 @@
         <v>246</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4356,20 +4376,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>251</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.6637940039694975</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4378,12 +4398,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.6637940039694975</v>
+      <c r="B23" s="275" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4394,10 +4414,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>0.50814791601378884</v>
       </c>
@@ -4406,7 +4426,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7461060663840131</v>
+        <v>6.7912952877409039</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4438,7 +4458,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.3941499251849352E-2</v>
+        <v>2.3782192718490296E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4457,10 +4477,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>236</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4468,22 +4488,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.296330494587089</v>
+        <v>18.281647090500023</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>33.787577886638417</v>
+        <v>33.760462249468468</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.525094699514224</v>
-      </c>
-      <c r="G29" s="285">
+        <v>21.507820106470618</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>29.380502510120362</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>29.356923695189973</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5514,7 +5534,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7755,7 +7775,7 @@
       <c r="B47" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>259</v>
       </c>
       <c r="D47" s="36"/>
@@ -9682,7 +9702,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10729,7 +10749,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10746,7 +10766,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10855,11 +10875,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10870,11 +10890,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10886,11 +10906,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11104,19 +11124,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11126,18 +11146,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11504,17 +11524,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14823366104233396</v>
+        <v>0.1472473155165436</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14823366104233385</v>
+        <v>0.14724731551654349</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14823366104233385</v>
+        <v>0.14724731551654349</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11555,17 +11575,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3941499251849352E-2</v>
+        <v>2.3782192718490296E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3941499251849352E-2</v>
+        <v>2.3782192718490296E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3941499251849352E-2</v>
+        <v>2.3782192718490296E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11596,15 +11616,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11625,14 +11645,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>475.34114887299455</v>
+        <v>473.29125816170244</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>475.34114887299455</v>
+        <v>473.29125816170244</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11653,14 +11673,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.294653935486075</v>
+        <v>43.259908558606682</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.294653935486075</v>
+        <v>43.259908558606682</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11703,21 +11723,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>580105.7338810967</v>
+        <v>577604.04986264056</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>236.32856054961383</v>
+        <v>235.30940257805531</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>236.32856054961383</v>
+        <v>235.30940257805531</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>322.57474187083415</v>
+        <v>321.18365050702891</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11766,27 +11786,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>580105.7338810967</v>
+        <v>577604.04986264056</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>200.87927646717174</v>
+        <v>200.01299219134702</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>236.32856054961383</v>
+        <v>235.30940257805531</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>236.32856054961383</v>
+        <v>235.30940257805531</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>236.32856054961385</v>
+        <v>235.30940257805534</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>322.57474187083415</v>
+        <v>321.18365050702891</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11827,27 +11847,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>52836.740631271983</v>
+        <v>52794.337417493029</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>18.296330494587089</v>
+        <v>18.281647090500023</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>21.525094699514224</v>
+        <v>21.507820106470618</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>21.525094699514224</v>
+        <v>21.507820106470618</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>21.525094699514224</v>
+        <v>21.507820106470618</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.380502510120362</v>
+        <v>29.356923695189973</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11888,27 +11908,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>316471.23725618434</v>
+        <v>315199.19364006672</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>109.58780348087942</v>
+        <v>109.14731964092353</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>128.92682762456403</v>
+        <v>128.40861134226296</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>128.92682762456403</v>
+        <v>128.40861134226296</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>128.92682762456403</v>
+        <v>128.40861134226299</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>175.97762219047726</v>
+        <v>175.27028710110943</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A5B832-FE27-43B2-9A21-6A5107410C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CDE8768-7548-4827-B708-31574F9E27BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3782192718490296E-2</v>
+        <v>2.4682053565474146E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>98.05</v>
+        <v>94.45</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>240679.19287775</v>
+        <v>231842.42495975</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4243,7 +4243,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>7.7728133201599121</v>
+        <v>7.7707331975301104</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7912952877409039</v>
+        <v>6.5436975457810354</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.3782192718490296E-2</v>
+        <v>2.4682053565474146E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4488,20 +4488,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.281647090500023</v>
+        <v>18.357218404778941</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>33.760462249468468</v>
+        <v>33.90001873965921</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.507820106470618</v>
+        <v>21.596727535034049</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>29.356923695189973</v>
+        <v>29.478277164921057</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9653,7 +9653,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11524,17 +11524,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1472473155165436</v>
+        <v>0.15281879900527154</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14724731551654349</v>
+        <v>0.15281879900527146</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14724731551654349</v>
+        <v>0.15281879900527146</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11575,17 +11575,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3782192718490296E-2</v>
+        <v>2.4682053565474146E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3782192718490296E-2</v>
+        <v>2.4682053565474146E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3782192718490296E-2</v>
+        <v>2.4682053565474146E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11645,14 +11645,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>473.29125816170244</v>
+        <v>484.76610075612678</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>473.29125816170244</v>
+        <v>484.76610075612678</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11673,14 +11673,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.259908558606682</v>
+        <v>43.43873315406988</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.259908558606682</v>
+        <v>43.43873315406988</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11723,21 +11723,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>577604.04986264056</v>
+        <v>591607.93317926698</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>235.30940257805531</v>
+        <v>241.01442735721295</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>235.30940257805531</v>
+        <v>241.01442735721295</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>321.18365050702891</v>
+        <v>328.97067756471347</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11764,7 +11764,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11786,27 +11786,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>577604.04986264056</v>
+        <v>591607.93317926698</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>200.01299219134702</v>
+        <v>204.86226325363103</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>235.30940257805531</v>
+        <v>241.01442735721295</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>235.30940257805531</v>
+        <v>241.01442735721298</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>235.30940257805534</v>
+        <v>241.01442735721298</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>321.18365050702891</v>
+        <v>328.97067756471347</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11847,27 +11847,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>52794.337417493029</v>
+        <v>53012.57472649336</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>18.281647090500023</v>
+        <v>18.357218404778941</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>21.507820106470618</v>
+        <v>21.596727535034049</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>21.507820106470618</v>
+        <v>21.596727535034049</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>21.507820106470618</v>
+        <v>21.596727535034049</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.356923695189973</v>
+        <v>29.478277164921057</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11908,27 +11908,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>315199.19364006672</v>
+        <v>322310.2539528801</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>109.14731964092353</v>
+        <v>111.60974082920498</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>128.40861134226296</v>
+        <v>131.30557744612349</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>128.40861134226296</v>
+        <v>131.30557744612352</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>128.40861134226299</v>
+        <v>131.30557744612352</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>175.27028710110943</v>
+        <v>179.22447736481726</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{955F8C81-5BE3-4087-8624-E2E5CECF9FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B07353-65E7-4EC5-8C74-D487502D7E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4215987219384203E-2</v>
+        <v>2.4227955659974442E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>96.2</v>
+        <v>96.15</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>258</v>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>236138.076031</v>
+        <v>236015.34314325001</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4456,7 +4456,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7652599016825361</v>
+        <v>7.7650597890218096</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4587,7 +4587,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6696390230972513</v>
+        <v>6.6663442680825664</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4215987219384203E-2</v>
+        <v>2.4227955659974442E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4706,20 +4706,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>23.074141707406568</v>
+        <v>18.303205608407254</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>37.624692510249979</v>
+        <v>33.800274063270493</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>27.146049067537138</v>
+        <v>21.533183068714415</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>32.717123921956507</v>
+        <v>29.391542663713476</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11756,17 +11756,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14993315178482028</v>
+        <v>0.15000725431895967</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1499331517848202</v>
+        <v>0.15000725431895959</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1499331517848202</v>
+        <v>0.15000725431895959</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11807,17 +11807,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4215987219384203E-2</v>
+        <v>2.4227955659974442E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4215987219384203E-2</v>
+        <v>2.4227955659974442E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4215987219384203E-2</v>
+        <v>2.4227955659974442E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11870,21 +11870,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>361.77518529877199</v>
+        <v>478.53388820194209</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>361.77518529877199</v>
+        <v>478.53388820194209</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11905,14 +11905,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>41.285747375590532</v>
+        <v>43.310922535012033</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>41.285747375590532</v>
+        <v>43.310922535012033</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11955,21 +11955,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>583896.9436411229</v>
+        <v>584002.14889987081</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>237.87305682503302</v>
+        <v>237.9159162658384</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>237.87305682503302</v>
+        <v>237.9159162658384</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>286.69079093156176</v>
+        <v>324.74139011354976</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12019,23 +12019,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>202.19209830127807</v>
+        <v>202.22852882596263</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>237.87305682503302</v>
+        <v>237.9159162658384</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>237.87305682503302</v>
+        <v>237.9159162658384</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>237.87305682503302</v>
+        <v>237.9159162658384</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>286.69079093156176</v>
+        <v>324.74139011354976</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12074,23 +12074,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>23.074141707406568</v>
+        <v>18.303205608407254</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>27.146049067537138</v>
+        <v>21.533183068714415</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>27.146049067537138</v>
+        <v>21.533183068714415</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>27.146049067537138</v>
+        <v>21.533183068714415</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>32.717123921956507</v>
+        <v>29.391542663713476</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12129,23 +12129,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>112.63312000434232</v>
+        <v>110.26586721718493</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>132.50955294628508</v>
+        <v>129.72454966727642</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>132.50955294628508</v>
+        <v>129.72454966727642</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>132.50955294628508</v>
+        <v>129.72454966727642</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>159.70395742675913</v>
+        <v>177.06646638863162</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B07353-65E7-4EC5-8C74-D487502D7E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F1B0EB-8A22-4A3E-AC9D-11E148BFB7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>278</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3619,7 +3620,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4227955659974442E-2</v>
+        <v>2.4240103770245127E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4271,7 +4272,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4294,6 +4295,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4312,8 +4316,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4349,24 +4353,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>2888.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>96.15</v>
+        <v>96.1</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>258</v>
@@ -4376,7 +4383,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>Standard Chartered</v>
       </c>
@@ -4405,11 +4412,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>236015.34314325001</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>235892.61025550001</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4432,11 +4439,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4456,7 +4463,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7650597890218096</v>
+        <v>7.7649132410685224</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4504,10 +4511,10 @@
         <v>220</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4554,7 +4561,7 @@
         <v>221</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4644,7 +4651,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6663442680825664</v>
+        <v>6.6630033795270309</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4676,7 +4683,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4227955659974442E-2</v>
+        <v>2.4240103770245127E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4695,10 +4702,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4706,22 +4713,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.303205608407254</v>
+        <v>20.084646223657273</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>33.800274063270493</v>
+        <v>38.026385500077055</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.533183068714415</v>
-      </c>
-      <c r="G29" s="312">
+        <v>23.628995557243851</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>29.391542663713476</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>33.066422173980051</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5703,15 +5710,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5739,7 +5747,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11756,17 +11764,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15000725431895967</v>
+        <v>0.15008246927693814</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15000725431895959</v>
+        <v>0.15008246927693805</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15000725431895959</v>
+        <v>0.15008246927693805</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11807,17 +11815,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4227955659974442E-2</v>
+        <v>2.4240103770245127E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4227955659974442E-2</v>
+        <v>2.4240103770245127E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4227955659974442E-2</v>
+        <v>2.4240103770245127E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11866,7 +11874,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11877,14 +11885,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>478.53388820194209</v>
+        <v>525.24991340755321</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>478.53388820194209</v>
+        <v>525.24991340755321</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11905,14 +11913,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.310922535012033</v>
+        <v>47.526350047467972</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>43.310922535012033</v>
+        <v>47.526350047467972</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11955,21 +11963,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>584002.14889987081</v>
+        <v>641014.3266803174</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>237.9159162658384</v>
+        <v>261.14203716367678</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>237.9159162658384</v>
+        <v>261.14203716367678</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>324.74139011354976</v>
+        <v>365.44223080951548</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12019,23 +12027,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>202.22852882596263</v>
+        <v>221.97073158912525</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>237.9159162658384</v>
+        <v>261.14203716367678</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>237.9159162658384</v>
+        <v>261.14203716367678</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>237.9159162658384</v>
+        <v>261.14203716367678</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>324.74139011354976</v>
+        <v>365.44223080951548</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12074,23 +12082,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>18.303205608407254</v>
+        <v>20.084646223657273</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>21.533183068714415</v>
+        <v>23.628995557243851</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>21.533183068714415</v>
+        <v>23.628995557243851</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>21.533183068714415</v>
+        <v>23.628995557243851</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.391542663713476</v>
+        <v>33.066422173980051</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12129,23 +12137,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>110.26586721718493</v>
+        <v>121.02768890639126</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>129.72454966727642</v>
+        <v>142.38551636046031</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>129.72454966727642</v>
+        <v>142.38551636046031</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>129.72454966727642</v>
+        <v>142.38551636046031</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>177.06646638863162</v>
+        <v>199.25432649174778</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F1B0EB-8A22-4A3E-AC9D-11E148BFB7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80F0F68A-5A52-4FA2-9C47-EFFF8E6062C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4240103770245127E-2</v>
+        <v>2.4215383985681987E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4353,27 +4353,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>2888.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>258</v>
@@ -4383,40 +4383,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>Standard Chartered</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>2454657755</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>235892.61025550001</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>236138.076031</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4439,11 +4439,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4463,7 +4463,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7649132410685224</v>
+        <v>7.7650664647420244</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4594,7 +4594,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6630033795270309</v>
+        <v>6.6698051716515243</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4240103770245127E-2</v>
+        <v>2.4215383985681987E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4702,10 +4702,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4713,22 +4713,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>20.084646223657273</v>
+        <v>22.548979570137803</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>38.026385500077055</v>
+        <v>39.917135134210568</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>23.628995557243851</v>
-      </c>
-      <c r="G29" s="313">
+        <v>26.52821125898565</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>33.066422173980051</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>34.71055229061789</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5711,15 +5711,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11092,7 +11092,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11103,11 +11103,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11119,11 +11119,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11764,17 +11764,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15008246927693814</v>
+        <v>0.14992941686666816</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15008246927693805</v>
+        <v>0.14992941686666808</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15008246927693805</v>
+        <v>0.14992941686666808</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11815,17 +11815,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4240103770245127E-2</v>
+        <v>2.4215383985681987E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4240103770245127E-2</v>
+        <v>2.4215383985681987E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4240103770245127E-2</v>
+        <v>2.4215383985681987E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11878,21 +11878,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>525.24991340755321</v>
+        <v>456.47224645756762</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>525.24991340755321</v>
+        <v>456.47224645756762</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11913,14 +11913,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>47.526350047467972</v>
+        <v>46.398007293286256</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>47.526350047467972</v>
+        <v>46.398007293286256</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11963,21 +11963,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>641014.3266803174</v>
+        <v>640639.87176108721</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>261.14203716367678</v>
+        <v>260.98948843525733</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>261.14203716367678</v>
+        <v>260.98948843525733</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>365.44223080951548</v>
+        <v>341.48888506627497</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12027,23 +12027,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>221.97073158912525</v>
+        <v>221.84106516996872</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>261.14203716367678</v>
+        <v>260.98948843525733</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>261.14203716367678</v>
+        <v>260.98948843525733</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>261.14203716367678</v>
+        <v>260.98948843525733</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>365.44223080951548</v>
+        <v>341.48888506627497</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12082,23 +12082,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>20.084646223657273</v>
+        <v>22.548979570137803</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>23.628995557243851</v>
+        <v>26.52821125898565</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>23.628995557243851</v>
+        <v>26.52821125898565</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>23.628995557243851</v>
+        <v>26.52821125898565</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>33.066422173980051</v>
+        <v>34.71055229061789</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12137,23 +12137,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>121.02768890639126</v>
+        <v>122.19502237005327</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>142.38551636046031</v>
+        <v>143.7588498471215</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>142.38551636046031</v>
+        <v>143.7588498471215</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>142.38551636046031</v>
+        <v>143.7588498471215</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>199.25432649174778</v>
+        <v>188.09971867844644</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F93BC16-2BDA-4F8D-A63A-E35EB2FBD90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7317732E-B476-4D15-88CD-102A1BF59065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4214770838525339E-2</v>
+        <v>2.4667545096584101E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4381,27 +4381,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>2888.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>96.2</v>
+        <v>94.5</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>255</v>
@@ -4411,7 +4411,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>Standard Chartered</v>
       </c>
@@ -4440,11 +4440,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>236138.076031</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>231965.1578475</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4467,11 +4467,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4491,7 +4491,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7648698488871259</v>
+        <v>7.7702767054239912</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6699740591501362</v>
+        <v>6.547546288406096</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4214770838525339E-2</v>
+        <v>2.4667545096584101E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4730,10 +4730,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4741,22 +4741,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>22.650847143867043</v>
+        <v>22.706726930107102</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>40.134778302754093</v>
+        <v>40.233791060118314</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>26.648055463372994</v>
-      </c>
-      <c r="G29" s="313">
+        <v>26.713796388361295</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>34.899807219786169</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>34.985905269668102</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5739,15 +5739,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11894,17 +11894,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14992562056941747</v>
+        <v>0.15272896989987314</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14992562056941738</v>
+        <v>0.15272896989987303</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14992562056941738</v>
+        <v>0.15272896989987303</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11945,17 +11945,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4214770838525339E-2</v>
+        <v>2.4667545096584101E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4214770838525339E-2</v>
+        <v>2.4667545096584101E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4214770838525339E-2</v>
+        <v>2.4667545096584101E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12015,14 +12015,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>458.52945455445956</v>
+        <v>463.33955032073362</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>458.52945455445956</v>
+        <v>463.33955032073362</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12043,14 +12043,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>46.607615555785998</v>
+        <v>46.722596844471319</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>46.607615555785998</v>
+        <v>46.722596844471319</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12093,21 +12093,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>643527.07802960952</v>
+        <v>650277.8480025453</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>262.16570384151555</v>
+        <v>264.91589170749603</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>262.16570384151555</v>
+        <v>264.91589170749603</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>343.34709848845154</v>
+        <v>346.94890074651266</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12157,23 +12157,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>222.8408482652882</v>
+        <v>225.17850795137161</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>262.16570384151555</v>
+        <v>264.91589170749603</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>262.16570384151555</v>
+        <v>264.91589170749603</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>262.16570384151555</v>
+        <v>264.91589170749603</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>343.34709848845154</v>
+        <v>346.94890074651266</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12212,23 +12212,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>22.650847143867043</v>
+        <v>22.706726930107102</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>26.648055463372994</v>
+        <v>26.713796388361295</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>26.648055463372994</v>
+        <v>26.713796388361295</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>26.648055463372994</v>
+        <v>26.713796388361295</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>34.899807219786169</v>
+        <v>34.985905269668102</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12267,23 +12267,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>122.74584770457763</v>
+        <v>123.94261744073935</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>144.40687965244427</v>
+        <v>145.81484404792866</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>144.40687965244427</v>
+        <v>145.81484404792866</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>144.40687965244427</v>
+        <v>145.81484404792866</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>189.12345285411885</v>
+        <v>190.96740300809037</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/2888.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7317732E-B476-4D15-88CD-102A1BF59065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C1C585B-0583-46B9-A484-F398392E3F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4667545096584101E-2</v>
+        <v>2.4235869419036535E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4381,27 +4381,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>2888.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>94.5</v>
+        <v>96.35</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>255</v>
@@ -4411,40 +4411,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>Standard Chartered</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>2454657755</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>231965.1578475</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>236506.27469424999</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4467,11 +4467,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4491,7 +4491,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7702767054239912</v>
+        <v>7.7837533950805664</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.547546288406096</v>
+        <v>6.6641675010167605</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4667545096584101E-2</v>
+        <v>2.4235869419036535E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4730,10 +4730,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4741,22 +4741,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>22.706726930107102</v>
+        <v>22.707803208470022</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>40.233791060118314</v>
+        <v>40.235698105502252</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>26.713796388361295</v>
-      </c>
-      <c r="G29" s="314">
+        <v>26.715062598200028</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>34.985905269668102</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>34.98756357000196</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5739,15 +5739,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11222,7 +11222,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11233,11 +11233,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11249,11 +11249,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11894,17 +11894,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15272896989987314</v>
+        <v>0.15005625231470088</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15272896989987303</v>
+        <v>0.15005625231470079</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15272896989987303</v>
+        <v>0.15005625231470079</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11945,17 +11945,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4667545096584101E-2</v>
+        <v>2.4235869419036535E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4667545096584101E-2</v>
+        <v>2.4235869419036535E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4667545096584101E-2</v>
+        <v>2.4235869419036535E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12015,14 +12015,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>463.33955032073362</v>
+        <v>459.85346012976481</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>463.33955032073362</v>
+        <v>459.85346012976481</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12043,14 +12043,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>46.722596844471319</v>
+        <v>46.724811453393073</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>46.722596844471319</v>
+        <v>46.724811453393073</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12093,21 +12093,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>650277.8480025453</v>
+        <v>645385.26495895081</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>264.91589170749603</v>
+        <v>262.92270832637962</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>264.91589170749603</v>
+        <v>262.92270832637962</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>346.94890074651266</v>
+        <v>344.33851456466698</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12157,23 +12157,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>225.17850795137161</v>
+        <v>223.48430207742268</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>264.91589170749603</v>
+        <v>262.92270832637962</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>264.91589170749603</v>
+        <v>262.92270832637962</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>264.91589170749603</v>
+        <v>262.92270832637962</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>346.94890074651266</v>
+        <v>344.33851456466698</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12212,23 +12212,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>22.706726930107102</v>
+        <v>22.707803208470022</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>26.713796388361295</v>
+        <v>26.715062598200028</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>26.713796388361295</v>
+        <v>26.715062598200028</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>26.713796388361295</v>
+        <v>26.715062598200028</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>34.985905269668102</v>
+        <v>34.98756357000196</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12267,23 +12267,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>123.94261744073935</v>
+        <v>123.09605264294635</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>145.81484404792866</v>
+        <v>144.81888546228981</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>145.81484404792866</v>
+        <v>144.81888546228981</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>145.81484404792866</v>
+        <v>144.81888546228981</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>190.96740300809037</v>
+        <v>189.66303906733447</v>
       </c>
       <c r="K106" s="75"/>
     </row>
